--- a/patents.xlsx
+++ b/patents.xlsx
@@ -11634,7 +11634,7 @@
         <v>1.0</v>
       </c>
       <c r="C243" t="n">
-        <v>3.81603953E8</v>
+        <v>4.40303526E8</v>
       </c>
       <c r="D243" t="s">
         <v>831</v>
@@ -11658,7 +11658,7 @@
         <v>375</v>
       </c>
       <c r="K243" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="244">

--- a/patents.xlsx
+++ b/patents.xlsx
@@ -11634,7 +11634,7 @@
         <v>1.0</v>
       </c>
       <c r="C243" t="n">
-        <v>4.40303526E8</v>
+        <v>3.81603953E8</v>
       </c>
       <c r="D243" t="s">
         <v>831</v>
@@ -11658,7 +11658,7 @@
         <v>375</v>
       </c>
       <c r="K243" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="244">

--- a/patents.xlsx
+++ b/patents.xlsx
@@ -2756,6 +2756,9 @@
     <t>CN2011182486 20110401</t>
   </si>
   <si>
+    <t>CN100477580A  20040630</t>
+  </si>
+  <si>
     <t>CN102752264A  20110419</t>
   </si>
   <si>
@@ -3393,9 +3396,6 @@
   </si>
   <si>
     <t>CN20151571622 20150909</t>
-  </si>
-  <si>
-    <t>CN100477580A  20040630</t>
   </si>
   <si>
     <t>CN100448215A  20040630</t>
@@ -12708,19 +12708,19 @@
         <v>2.0</v>
       </c>
       <c r="C244" t="n">
-        <v>3.81179812E8</v>
+        <v>2.819252E8</v>
       </c>
       <c r="D244" t="s">
         <v>914</v>
       </c>
       <c r="E244" t="s">
-        <v>915</v>
+        <v>449</v>
       </c>
       <c r="F244" t="s">
-        <v>916</v>
+        <v>675</v>
       </c>
       <c r="G244" t="s">
-        <v>917</v>
+        <v>676</v>
       </c>
       <c r="H244" t="s">
         <v>16</v>
@@ -12732,7 +12732,7 @@
         <v>18</v>
       </c>
       <c r="K244" t="s">
-        <v>918</v>
+        <v>677</v>
       </c>
       <c r="L244" t="n">
         <v>0.0</v>
@@ -12746,19 +12746,19 @@
         <v>2.0</v>
       </c>
       <c r="C245" t="n">
-        <v>4.38873133E8</v>
+        <v>3.81179812E8</v>
       </c>
       <c r="D245" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="E245" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="F245" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="G245" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="H245" t="s">
         <v>16</v>
@@ -12770,7 +12770,7 @@
         <v>18</v>
       </c>
       <c r="K245" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="L245" t="n">
         <v>0.0</v>
@@ -12784,19 +12784,19 @@
         <v>2.0</v>
       </c>
       <c r="C246" t="n">
-        <v>3.8448653E8</v>
+        <v>4.38873133E8</v>
       </c>
       <c r="D246" t="s">
+        <v>920</v>
+      </c>
+      <c r="E246" t="s">
+        <v>921</v>
+      </c>
+      <c r="F246" t="s">
+        <v>922</v>
+      </c>
+      <c r="G246" t="s">
         <v>923</v>
-      </c>
-      <c r="E246" t="s">
-        <v>924</v>
-      </c>
-      <c r="F246" t="s">
-        <v>925</v>
-      </c>
-      <c r="G246" t="s">
-        <v>926</v>
       </c>
       <c r="H246" t="s">
         <v>16</v>
@@ -12808,10 +12808,10 @@
         <v>18</v>
       </c>
       <c r="K246" t="s">
-        <v>631</v>
+        <v>919</v>
       </c>
       <c r="L246" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="247">
@@ -12822,19 +12822,19 @@
         <v>2.0</v>
       </c>
       <c r="C247" t="n">
-        <v>4.13833212E8</v>
+        <v>3.8448653E8</v>
       </c>
       <c r="D247" t="s">
+        <v>924</v>
+      </c>
+      <c r="E247" t="s">
+        <v>925</v>
+      </c>
+      <c r="F247" t="s">
+        <v>926</v>
+      </c>
+      <c r="G247" t="s">
         <v>927</v>
-      </c>
-      <c r="E247" t="s">
-        <v>325</v>
-      </c>
-      <c r="F247" t="s">
-        <v>928</v>
-      </c>
-      <c r="G247" t="s">
-        <v>929</v>
       </c>
       <c r="H247" t="s">
         <v>16</v>
@@ -12846,10 +12846,10 @@
         <v>18</v>
       </c>
       <c r="K247" t="s">
-        <v>930</v>
+        <v>631</v>
       </c>
       <c r="L247" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="248">
@@ -12860,19 +12860,19 @@
         <v>2.0</v>
       </c>
       <c r="C248" t="n">
-        <v>4.14736698E8</v>
+        <v>4.13833212E8</v>
       </c>
       <c r="D248" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E248" t="s">
-        <v>932</v>
+        <v>325</v>
       </c>
       <c r="F248" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="G248" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="H248" t="s">
         <v>16</v>
@@ -12884,7 +12884,7 @@
         <v>18</v>
       </c>
       <c r="K248" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="L248" t="n">
         <v>0.0</v>
@@ -12898,19 +12898,19 @@
         <v>2.0</v>
       </c>
       <c r="C249" t="n">
-        <v>4.14905039E8</v>
+        <v>4.14736698E8</v>
       </c>
       <c r="D249" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="E249" t="s">
-        <v>224</v>
+        <v>933</v>
       </c>
       <c r="F249" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="G249" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="H249" t="s">
         <v>16</v>
@@ -12922,7 +12922,7 @@
         <v>18</v>
       </c>
       <c r="K249" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="L249" t="n">
         <v>0.0</v>
@@ -12936,19 +12936,19 @@
         <v>2.0</v>
       </c>
       <c r="C250" t="n">
-        <v>4.16582023E8</v>
+        <v>4.14905039E8</v>
       </c>
       <c r="D250" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="E250" t="s">
-        <v>304</v>
+        <v>224</v>
       </c>
       <c r="F250" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="G250" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="H250" t="s">
         <v>16</v>
@@ -12960,7 +12960,7 @@
         <v>18</v>
       </c>
       <c r="K250" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="L250" t="n">
         <v>0.0</v>
@@ -12974,19 +12974,19 @@
         <v>2.0</v>
       </c>
       <c r="C251" t="n">
-        <v>4.17307109E8</v>
+        <v>4.16582023E8</v>
       </c>
       <c r="D251" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="E251" t="s">
-        <v>945</v>
+        <v>304</v>
       </c>
       <c r="F251" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="G251" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="H251" t="s">
         <v>16</v>
@@ -12998,10 +12998,10 @@
         <v>18</v>
       </c>
       <c r="K251" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="L251" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="252">
@@ -13012,19 +13012,19 @@
         <v>2.0</v>
       </c>
       <c r="C252" t="n">
-        <v>4.17880195E8</v>
+        <v>4.17307109E8</v>
       </c>
       <c r="D252" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="E252" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="F252" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="G252" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="H252" t="s">
         <v>16</v>
@@ -13036,10 +13036,10 @@
         <v>18</v>
       </c>
       <c r="K252" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="L252" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="253">
@@ -13050,19 +13050,19 @@
         <v>2.0</v>
       </c>
       <c r="C253" t="n">
-        <v>4.19055222E8</v>
+        <v>4.17880195E8</v>
       </c>
       <c r="D253" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="E253" t="s">
-        <v>241</v>
+        <v>951</v>
       </c>
       <c r="F253" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="G253" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="H253" t="s">
         <v>16</v>
@@ -13074,7 +13074,7 @@
         <v>18</v>
       </c>
       <c r="K253" t="s">
-        <v>304</v>
+        <v>954</v>
       </c>
       <c r="L253" t="n">
         <v>0.0</v>
@@ -13088,19 +13088,19 @@
         <v>2.0</v>
       </c>
       <c r="C254" t="n">
-        <v>4.19326785E8</v>
+        <v>4.19055222E8</v>
       </c>
       <c r="D254" t="s">
+        <v>955</v>
+      </c>
+      <c r="E254" t="s">
+        <v>241</v>
+      </c>
+      <c r="F254" t="s">
+        <v>956</v>
+      </c>
+      <c r="G254" t="s">
         <v>957</v>
-      </c>
-      <c r="E254" t="s">
-        <v>958</v>
-      </c>
-      <c r="F254" t="s">
-        <v>959</v>
-      </c>
-      <c r="G254" t="s">
-        <v>960</v>
       </c>
       <c r="H254" t="s">
         <v>16</v>
@@ -13112,7 +13112,7 @@
         <v>18</v>
       </c>
       <c r="K254" t="s">
-        <v>961</v>
+        <v>304</v>
       </c>
       <c r="L254" t="n">
         <v>0.0</v>
@@ -13126,19 +13126,19 @@
         <v>2.0</v>
       </c>
       <c r="C255" t="n">
-        <v>4.20133247E8</v>
+        <v>4.19326785E8</v>
       </c>
       <c r="D255" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="E255" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="F255" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="G255" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="H255" t="s">
         <v>16</v>
@@ -13150,7 +13150,7 @@
         <v>18</v>
       </c>
       <c r="K255" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="L255" t="n">
         <v>0.0</v>
@@ -13164,19 +13164,19 @@
         <v>2.0</v>
       </c>
       <c r="C256" t="n">
-        <v>4.20619669E8</v>
+        <v>4.20133247E8</v>
       </c>
       <c r="D256" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="E256" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="F256" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="G256" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="H256" t="s">
         <v>16</v>
@@ -13188,7 +13188,7 @@
         <v>18</v>
       </c>
       <c r="K256" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="L256" t="n">
         <v>0.0</v>
@@ -13202,19 +13202,19 @@
         <v>2.0</v>
       </c>
       <c r="C257" t="n">
-        <v>4.20619711E8</v>
+        <v>4.20619669E8</v>
       </c>
       <c r="D257" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="E257" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="F257" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="G257" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="H257" t="s">
         <v>16</v>
@@ -13226,7 +13226,7 @@
         <v>18</v>
       </c>
       <c r="K257" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="L257" t="n">
         <v>0.0</v>
@@ -13240,19 +13240,19 @@
         <v>2.0</v>
       </c>
       <c r="C258" t="n">
-        <v>4.20620943E8</v>
+        <v>4.20619711E8</v>
       </c>
       <c r="D258" t="s">
+        <v>973</v>
+      </c>
+      <c r="E258" t="s">
+        <v>969</v>
+      </c>
+      <c r="F258" t="s">
+        <v>974</v>
+      </c>
+      <c r="G258" t="s">
         <v>975</v>
-      </c>
-      <c r="E258" t="s">
-        <v>968</v>
-      </c>
-      <c r="F258" t="s">
-        <v>976</v>
-      </c>
-      <c r="G258" t="s">
-        <v>977</v>
       </c>
       <c r="H258" t="s">
         <v>16</v>
@@ -13264,7 +13264,7 @@
         <v>18</v>
       </c>
       <c r="K258" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="L258" t="n">
         <v>0.0</v>
@@ -13278,19 +13278,19 @@
         <v>2.0</v>
       </c>
       <c r="C259" t="n">
-        <v>4.20822122E8</v>
+        <v>4.20620943E8</v>
       </c>
       <c r="D259" t="s">
+        <v>976</v>
+      </c>
+      <c r="E259" t="s">
+        <v>969</v>
+      </c>
+      <c r="F259" t="s">
+        <v>977</v>
+      </c>
+      <c r="G259" t="s">
         <v>978</v>
-      </c>
-      <c r="E259" t="s">
-        <v>154</v>
-      </c>
-      <c r="F259" t="s">
-        <v>979</v>
-      </c>
-      <c r="G259" t="s">
-        <v>980</v>
       </c>
       <c r="H259" t="s">
         <v>16</v>
@@ -13302,7 +13302,7 @@
         <v>18</v>
       </c>
       <c r="K259" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="L259" t="n">
         <v>0.0</v>
@@ -13316,19 +13316,19 @@
         <v>2.0</v>
       </c>
       <c r="C260" t="n">
-        <v>4.20822164E8</v>
+        <v>4.20822122E8</v>
       </c>
       <c r="D260" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E260" t="s">
         <v>154</v>
       </c>
       <c r="F260" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="G260" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="H260" t="s">
         <v>16</v>
@@ -13340,7 +13340,7 @@
         <v>18</v>
       </c>
       <c r="K260" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="L260" t="n">
         <v>0.0</v>
@@ -13354,19 +13354,19 @@
         <v>2.0</v>
       </c>
       <c r="C261" t="n">
-        <v>4.2082227E8</v>
+        <v>4.20822164E8</v>
       </c>
       <c r="D261" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="E261" t="s">
         <v>154</v>
       </c>
       <c r="F261" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="G261" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="H261" t="s">
         <v>16</v>
@@ -13378,7 +13378,7 @@
         <v>18</v>
       </c>
       <c r="K261" t="s">
-        <v>987</v>
+        <v>972</v>
       </c>
       <c r="L261" t="n">
         <v>0.0</v>
@@ -13392,19 +13392,19 @@
         <v>2.0</v>
       </c>
       <c r="C262" t="n">
-        <v>4.20823112E8</v>
+        <v>4.2082227E8</v>
       </c>
       <c r="D262" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="E262" t="s">
         <v>154</v>
       </c>
       <c r="F262" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="G262" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="H262" t="s">
         <v>16</v>
@@ -13416,7 +13416,7 @@
         <v>18</v>
       </c>
       <c r="K262" t="s">
-        <v>971</v>
+        <v>988</v>
       </c>
       <c r="L262" t="n">
         <v>0.0</v>
@@ -13430,19 +13430,19 @@
         <v>2.0</v>
       </c>
       <c r="C263" t="n">
-        <v>4.21203889E8</v>
+        <v>4.20823112E8</v>
       </c>
       <c r="D263" t="s">
+        <v>989</v>
+      </c>
+      <c r="E263" t="s">
+        <v>154</v>
+      </c>
+      <c r="F263" t="s">
+        <v>990</v>
+      </c>
+      <c r="G263" t="s">
         <v>991</v>
-      </c>
-      <c r="E263" t="s">
-        <v>992</v>
-      </c>
-      <c r="F263" t="s">
-        <v>993</v>
-      </c>
-      <c r="G263" t="s">
-        <v>994</v>
       </c>
       <c r="H263" t="s">
         <v>16</v>
@@ -13454,7 +13454,7 @@
         <v>18</v>
       </c>
       <c r="K263" t="s">
-        <v>995</v>
+        <v>972</v>
       </c>
       <c r="L263" t="n">
         <v>0.0</v>
@@ -13468,19 +13468,19 @@
         <v>2.0</v>
       </c>
       <c r="C264" t="n">
-        <v>4.21553674E8</v>
+        <v>4.21203889E8</v>
       </c>
       <c r="D264" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="E264" t="s">
-        <v>211</v>
+        <v>993</v>
       </c>
       <c r="F264" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="G264" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="H264" t="s">
         <v>16</v>
@@ -13492,7 +13492,7 @@
         <v>18</v>
       </c>
       <c r="K264" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="L264" t="n">
         <v>0.0</v>
@@ -13506,19 +13506,19 @@
         <v>2.0</v>
       </c>
       <c r="C265" t="n">
-        <v>4.21553694E8</v>
+        <v>4.21553674E8</v>
       </c>
       <c r="D265" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="E265" t="s">
         <v>211</v>
       </c>
       <c r="F265" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="G265" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="H265" t="s">
         <v>16</v>
@@ -13530,7 +13530,7 @@
         <v>18</v>
       </c>
       <c r="K265" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="L265" t="n">
         <v>0.0</v>
@@ -13544,19 +13544,19 @@
         <v>2.0</v>
       </c>
       <c r="C266" t="n">
-        <v>4.21554034E8</v>
+        <v>4.21553694E8</v>
       </c>
       <c r="D266" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E266" t="s">
         <v>211</v>
       </c>
       <c r="F266" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="G266" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="H266" t="s">
         <v>16</v>
@@ -13568,7 +13568,7 @@
         <v>18</v>
       </c>
       <c r="K266" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="L266" t="n">
         <v>0.0</v>
@@ -13582,19 +13582,19 @@
         <v>2.0</v>
       </c>
       <c r="C267" t="n">
-        <v>4.22348123E8</v>
+        <v>4.21554034E8</v>
       </c>
       <c r="D267" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E267" t="s">
+        <v>211</v>
+      </c>
+      <c r="F267" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G267" t="s">
         <v>1006</v>
-      </c>
-      <c r="E267" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F267" t="s">
-        <v>1008</v>
-      </c>
-      <c r="G267" t="s">
-        <v>1009</v>
       </c>
       <c r="H267" t="s">
         <v>16</v>
@@ -13606,7 +13606,7 @@
         <v>18</v>
       </c>
       <c r="K267" t="s">
-        <v>971</v>
+        <v>996</v>
       </c>
       <c r="L267" t="n">
         <v>0.0</v>
@@ -13620,19 +13620,19 @@
         <v>2.0</v>
       </c>
       <c r="C268" t="n">
-        <v>4.22533013E8</v>
+        <v>4.22348123E8</v>
       </c>
       <c r="D268" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E268" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F268" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G268" t="s">
         <v>1010</v>
-      </c>
-      <c r="E268" t="s">
-        <v>549</v>
-      </c>
-      <c r="F268" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G268" t="s">
-        <v>1012</v>
       </c>
       <c r="H268" t="s">
         <v>16</v>
@@ -13644,7 +13644,7 @@
         <v>18</v>
       </c>
       <c r="K268" t="s">
-        <v>542</v>
+        <v>972</v>
       </c>
       <c r="L268" t="n">
         <v>0.0</v>
@@ -13658,19 +13658,19 @@
         <v>2.0</v>
       </c>
       <c r="C269" t="n">
-        <v>4.23130233E8</v>
+        <v>4.22533013E8</v>
       </c>
       <c r="D269" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E269" t="s">
+        <v>549</v>
+      </c>
+      <c r="F269" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G269" t="s">
         <v>1013</v>
-      </c>
-      <c r="E269" t="s">
-        <v>544</v>
-      </c>
-      <c r="F269" t="s">
-        <v>1014</v>
-      </c>
-      <c r="G269" t="s">
-        <v>1015</v>
       </c>
       <c r="H269" t="s">
         <v>16</v>
@@ -13682,7 +13682,7 @@
         <v>18</v>
       </c>
       <c r="K269" t="s">
-        <v>154</v>
+        <v>542</v>
       </c>
       <c r="L269" t="n">
         <v>0.0</v>
@@ -13696,19 +13696,19 @@
         <v>2.0</v>
       </c>
       <c r="C270" t="n">
-        <v>4.23130816E8</v>
+        <v>4.23130233E8</v>
       </c>
       <c r="D270" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E270" t="s">
         <v>544</v>
       </c>
       <c r="F270" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="G270" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="H270" t="s">
         <v>16</v>
@@ -13734,19 +13734,19 @@
         <v>2.0</v>
       </c>
       <c r="C271" t="n">
-        <v>4.23134186E8</v>
+        <v>4.23130816E8</v>
       </c>
       <c r="D271" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E271" t="s">
         <v>544</v>
       </c>
       <c r="F271" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="G271" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="H271" t="s">
         <v>16</v>
@@ -13758,7 +13758,7 @@
         <v>18</v>
       </c>
       <c r="K271" t="s">
-        <v>535</v>
+        <v>154</v>
       </c>
       <c r="L271" t="n">
         <v>0.0</v>
@@ -13772,19 +13772,19 @@
         <v>2.0</v>
       </c>
       <c r="C272" t="n">
-        <v>4.23134612E8</v>
+        <v>4.23134186E8</v>
       </c>
       <c r="D272" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E272" t="s">
         <v>544</v>
       </c>
       <c r="F272" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="G272" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="H272" t="s">
         <v>16</v>
@@ -13810,19 +13810,19 @@
         <v>2.0</v>
       </c>
       <c r="C273" t="n">
-        <v>4.24169331E8</v>
+        <v>4.23134612E8</v>
       </c>
       <c r="D273" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E273" t="s">
+        <v>544</v>
+      </c>
+      <c r="F273" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G273" t="s">
         <v>1025</v>
-      </c>
-      <c r="E273" t="s">
-        <v>703</v>
-      </c>
-      <c r="F273" t="s">
-        <v>1026</v>
-      </c>
-      <c r="G273" t="s">
-        <v>1027</v>
       </c>
       <c r="H273" t="s">
         <v>16</v>
@@ -13834,7 +13834,7 @@
         <v>18</v>
       </c>
       <c r="K273" t="s">
-        <v>154</v>
+        <v>535</v>
       </c>
       <c r="L273" t="n">
         <v>0.0</v>
@@ -13848,19 +13848,19 @@
         <v>2.0</v>
       </c>
       <c r="C274" t="n">
-        <v>4.24778569E8</v>
+        <v>4.24169331E8</v>
       </c>
       <c r="D274" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E274" t="s">
+        <v>703</v>
+      </c>
+      <c r="F274" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G274" t="s">
         <v>1028</v>
-      </c>
-      <c r="E274" t="s">
-        <v>151</v>
-      </c>
-      <c r="F274" t="s">
-        <v>1029</v>
-      </c>
-      <c r="G274" t="s">
-        <v>1030</v>
       </c>
       <c r="H274" t="s">
         <v>16</v>
@@ -13872,7 +13872,7 @@
         <v>18</v>
       </c>
       <c r="K274" t="s">
-        <v>1031</v>
+        <v>154</v>
       </c>
       <c r="L274" t="n">
         <v>0.0</v>
@@ -13886,19 +13886,19 @@
         <v>2.0</v>
       </c>
       <c r="C275" t="n">
-        <v>4.2563834E8</v>
+        <v>4.24778569E8</v>
       </c>
       <c r="D275" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="E275" t="s">
-        <v>1033</v>
+        <v>151</v>
       </c>
       <c r="F275" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="G275" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="H275" t="s">
         <v>16</v>
@@ -13910,7 +13910,7 @@
         <v>18</v>
       </c>
       <c r="K275" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="L275" t="n">
         <v>0.0</v>
@@ -13924,19 +13924,19 @@
         <v>2.0</v>
       </c>
       <c r="C276" t="n">
-        <v>4.25638696E8</v>
+        <v>4.2563834E8</v>
       </c>
       <c r="D276" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="E276" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F276" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="G276" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="H276" t="s">
         <v>16</v>
@@ -13948,7 +13948,7 @@
         <v>18</v>
       </c>
       <c r="K276" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="L276" t="n">
         <v>0.0</v>
@@ -13962,19 +13962,19 @@
         <v>2.0</v>
       </c>
       <c r="C277" t="n">
-        <v>4.2584765E8</v>
+        <v>4.25638696E8</v>
       </c>
       <c r="D277" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E277" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F277" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G277" t="s">
         <v>1040</v>
-      </c>
-      <c r="E277" t="s">
-        <v>1041</v>
-      </c>
-      <c r="F277" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G277" t="s">
-        <v>1043</v>
       </c>
       <c r="H277" t="s">
         <v>16</v>
@@ -13986,7 +13986,7 @@
         <v>18</v>
       </c>
       <c r="K277" t="s">
-        <v>1044</v>
+        <v>1037</v>
       </c>
       <c r="L277" t="n">
         <v>0.0</v>
@@ -14000,19 +14000,19 @@
         <v>2.0</v>
       </c>
       <c r="C278" t="n">
-        <v>4.25848754E8</v>
+        <v>4.2584765E8</v>
       </c>
       <c r="D278" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="E278" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="F278" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="G278" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="H278" t="s">
         <v>16</v>
@@ -14024,7 +14024,7 @@
         <v>18</v>
       </c>
       <c r="K278" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="L278" t="n">
         <v>0.0</v>
@@ -14038,19 +14038,19 @@
         <v>2.0</v>
       </c>
       <c r="C279" t="n">
-        <v>4.25858907E8</v>
+        <v>4.25848754E8</v>
       </c>
       <c r="D279" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E279" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F279" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G279" t="s">
         <v>1048</v>
-      </c>
-      <c r="E279" t="s">
-        <v>1041</v>
-      </c>
-      <c r="F279" t="s">
-        <v>1049</v>
-      </c>
-      <c r="G279" t="s">
-        <v>1050</v>
       </c>
       <c r="H279" t="s">
         <v>16</v>
@@ -14062,7 +14062,7 @@
         <v>18</v>
       </c>
       <c r="K279" t="s">
-        <v>1036</v>
+        <v>1045</v>
       </c>
       <c r="L279" t="n">
         <v>0.0</v>
@@ -14076,19 +14076,19 @@
         <v>2.0</v>
       </c>
       <c r="C280" t="n">
-        <v>4.37401239E8</v>
+        <v>4.25858907E8</v>
       </c>
       <c r="D280" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E280" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F280" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G280" t="s">
         <v>1051</v>
-      </c>
-      <c r="E280" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F280" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G280" t="s">
-        <v>1054</v>
       </c>
       <c r="H280" t="s">
         <v>16</v>
@@ -14100,7 +14100,7 @@
         <v>18</v>
       </c>
       <c r="K280" t="s">
-        <v>1055</v>
+        <v>1037</v>
       </c>
       <c r="L280" t="n">
         <v>0.0</v>
@@ -14114,19 +14114,19 @@
         <v>2.0</v>
       </c>
       <c r="C281" t="n">
-        <v>4.37401522E8</v>
+        <v>4.37401239E8</v>
       </c>
       <c r="D281" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="E281" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="F281" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="G281" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="H281" t="s">
         <v>16</v>
@@ -14138,7 +14138,7 @@
         <v>18</v>
       </c>
       <c r="K281" t="s">
-        <v>1036</v>
+        <v>1056</v>
       </c>
       <c r="L281" t="n">
         <v>0.0</v>
@@ -14152,19 +14152,19 @@
         <v>2.0</v>
       </c>
       <c r="C282" t="n">
-        <v>4.38620237E8</v>
+        <v>4.37401522E8</v>
       </c>
       <c r="D282" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E282" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F282" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G282" t="s">
         <v>1059</v>
-      </c>
-      <c r="E282" t="s">
-        <v>1060</v>
-      </c>
-      <c r="F282" t="s">
-        <v>1061</v>
-      </c>
-      <c r="G282" t="s">
-        <v>1062</v>
       </c>
       <c r="H282" t="s">
         <v>16</v>
@@ -14176,7 +14176,7 @@
         <v>18</v>
       </c>
       <c r="K282" t="s">
-        <v>1063</v>
+        <v>1037</v>
       </c>
       <c r="L282" t="n">
         <v>0.0</v>
@@ -14190,19 +14190,19 @@
         <v>2.0</v>
       </c>
       <c r="C283" t="n">
-        <v>4.39399963E8</v>
+        <v>4.38620237E8</v>
       </c>
       <c r="D283" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="E283" t="s">
-        <v>744</v>
+        <v>1061</v>
       </c>
       <c r="F283" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="G283" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="H283" t="s">
         <v>16</v>
@@ -14214,7 +14214,7 @@
         <v>18</v>
       </c>
       <c r="K283" t="s">
-        <v>1036</v>
+        <v>1064</v>
       </c>
       <c r="L283" t="n">
         <v>0.0</v>
@@ -14228,19 +14228,19 @@
         <v>2.0</v>
       </c>
       <c r="C284" t="n">
-        <v>4.40800475E8</v>
+        <v>4.39399963E8</v>
       </c>
       <c r="D284" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E284" t="s">
+        <v>744</v>
+      </c>
+      <c r="F284" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G284" t="s">
         <v>1067</v>
-      </c>
-      <c r="E284" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F284" t="s">
-        <v>1069</v>
-      </c>
-      <c r="G284" t="s">
-        <v>1070</v>
       </c>
       <c r="H284" t="s">
         <v>16</v>
@@ -14252,7 +14252,7 @@
         <v>18</v>
       </c>
       <c r="K284" t="s">
-        <v>1071</v>
+        <v>1037</v>
       </c>
       <c r="L284" t="n">
         <v>0.0</v>
@@ -14266,19 +14266,19 @@
         <v>2.0</v>
       </c>
       <c r="C285" t="n">
-        <v>4.40882319E8</v>
+        <v>4.40800475E8</v>
       </c>
       <c r="D285" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="E285" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="F285" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="G285" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="H285" t="s">
         <v>16</v>
@@ -14290,7 +14290,7 @@
         <v>18</v>
       </c>
       <c r="K285" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="L285" t="n">
         <v>0.0</v>
@@ -14304,19 +14304,19 @@
         <v>2.0</v>
       </c>
       <c r="C286" t="n">
-        <v>4.40883083E8</v>
+        <v>4.40882319E8</v>
       </c>
       <c r="D286" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="E286" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="F286" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="G286" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="H286" t="s">
         <v>16</v>
@@ -14328,7 +14328,7 @@
         <v>18</v>
       </c>
       <c r="K286" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="L286" t="n">
         <v>0.0</v>
@@ -14342,19 +14342,19 @@
         <v>2.0</v>
       </c>
       <c r="C287" t="n">
-        <v>4.40888987E8</v>
+        <v>4.40883083E8</v>
       </c>
       <c r="D287" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E287" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F287" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G287" t="s">
         <v>1080</v>
-      </c>
-      <c r="E287" t="s">
-        <v>1073</v>
-      </c>
-      <c r="F287" t="s">
-        <v>1081</v>
-      </c>
-      <c r="G287" t="s">
-        <v>1082</v>
       </c>
       <c r="H287" t="s">
         <v>16</v>
@@ -14366,7 +14366,7 @@
         <v>18</v>
       </c>
       <c r="K287" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="L287" t="n">
         <v>0.0</v>
@@ -14380,19 +14380,19 @@
         <v>2.0</v>
       </c>
       <c r="C288" t="n">
-        <v>4.41269835E8</v>
+        <v>4.40888987E8</v>
       </c>
       <c r="D288" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E288" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F288" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G288" t="s">
         <v>1083</v>
-      </c>
-      <c r="E288" t="s">
-        <v>527</v>
-      </c>
-      <c r="F288" t="s">
-        <v>1084</v>
-      </c>
-      <c r="G288" t="s">
-        <v>1085</v>
       </c>
       <c r="H288" t="s">
         <v>16</v>
@@ -14404,7 +14404,7 @@
         <v>18</v>
       </c>
       <c r="K288" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="L288" t="n">
         <v>0.0</v>
@@ -14418,19 +14418,19 @@
         <v>2.0</v>
       </c>
       <c r="C289" t="n">
-        <v>4.41345732E8</v>
+        <v>4.41269835E8</v>
       </c>
       <c r="D289" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E289" t="s">
+        <v>527</v>
+      </c>
+      <c r="F289" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G289" t="s">
         <v>1086</v>
-      </c>
-      <c r="E289" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F289" t="s">
-        <v>1088</v>
-      </c>
-      <c r="G289" t="s">
-        <v>1089</v>
       </c>
       <c r="H289" t="s">
         <v>16</v>
@@ -14442,7 +14442,7 @@
         <v>18</v>
       </c>
       <c r="K289" t="s">
-        <v>1090</v>
+        <v>1077</v>
       </c>
       <c r="L289" t="n">
         <v>0.0</v>
@@ -14456,31 +14456,31 @@
         <v>2.0</v>
       </c>
       <c r="C290" t="n">
-        <v>4.42685745E8</v>
+        <v>4.41345732E8</v>
       </c>
       <c r="D290" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E290" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F290" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G290" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H290" t="s">
+        <v>16</v>
+      </c>
+      <c r="I290" t="s">
+        <v>17</v>
+      </c>
+      <c r="J290" t="s">
+        <v>18</v>
+      </c>
+      <c r="K290" t="s">
         <v>1091</v>
-      </c>
-      <c r="E290" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F290" t="s">
-        <v>1093</v>
-      </c>
-      <c r="G290" t="s">
-        <v>1094</v>
-      </c>
-      <c r="H290" t="s">
-        <v>34</v>
-      </c>
-      <c r="I290" t="s">
-        <v>17</v>
-      </c>
-      <c r="J290" t="s">
-        <v>35</v>
-      </c>
-      <c r="K290" t="s">
-        <v>1095</v>
       </c>
       <c r="L290" t="n">
         <v>0.0</v>
@@ -14494,31 +14494,31 @@
         <v>2.0</v>
       </c>
       <c r="C291" t="n">
-        <v>4.42685747E8</v>
+        <v>4.42685745E8</v>
       </c>
       <c r="D291" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E291" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F291" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G291" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H291" t="s">
+        <v>34</v>
+      </c>
+      <c r="I291" t="s">
+        <v>17</v>
+      </c>
+      <c r="J291" t="s">
+        <v>35</v>
+      </c>
+      <c r="K291" t="s">
         <v>1096</v>
-      </c>
-      <c r="E291" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F291" t="s">
-        <v>1097</v>
-      </c>
-      <c r="G291" t="s">
-        <v>1098</v>
-      </c>
-      <c r="H291" t="s">
-        <v>34</v>
-      </c>
-      <c r="I291" t="s">
-        <v>17</v>
-      </c>
-      <c r="J291" t="s">
-        <v>35</v>
-      </c>
-      <c r="K291" t="s">
-        <v>1095</v>
       </c>
       <c r="L291" t="n">
         <v>0.0</v>
@@ -14532,31 +14532,31 @@
         <v>2.0</v>
       </c>
       <c r="C292" t="n">
-        <v>4.42882236E8</v>
+        <v>4.42685747E8</v>
       </c>
       <c r="D292" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E292" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F292" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G292" t="s">
         <v>1099</v>
       </c>
-      <c r="E292" t="s">
-        <v>699</v>
-      </c>
-      <c r="F292" t="s">
-        <v>1100</v>
-      </c>
-      <c r="G292" t="s">
-        <v>1101</v>
-      </c>
       <c r="H292" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I292" t="s">
         <v>17</v>
       </c>
       <c r="J292" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="K292" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="L292" t="n">
         <v>0.0</v>
@@ -14570,19 +14570,19 @@
         <v>2.0</v>
       </c>
       <c r="C293" t="n">
-        <v>4.42883138E8</v>
+        <v>4.42882236E8</v>
       </c>
       <c r="D293" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="E293" t="s">
         <v>699</v>
       </c>
       <c r="F293" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="G293" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="H293" t="s">
         <v>16</v>
@@ -14594,7 +14594,7 @@
         <v>18</v>
       </c>
       <c r="K293" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="L293" t="n">
         <v>0.0</v>
@@ -14608,19 +14608,19 @@
         <v>2.0</v>
       </c>
       <c r="C294" t="n">
-        <v>4.44070901E8</v>
+        <v>4.42883138E8</v>
       </c>
       <c r="D294" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E294" t="s">
+        <v>699</v>
+      </c>
+      <c r="F294" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G294" t="s">
         <v>1106</v>
-      </c>
-      <c r="E294" t="s">
-        <v>1107</v>
-      </c>
-      <c r="F294" t="s">
-        <v>1108</v>
-      </c>
-      <c r="G294" t="s">
-        <v>1109</v>
       </c>
       <c r="H294" t="s">
         <v>16</v>
@@ -14632,7 +14632,7 @@
         <v>18</v>
       </c>
       <c r="K294" t="s">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="L294" t="n">
         <v>0.0</v>
@@ -14646,19 +14646,19 @@
         <v>2.0</v>
       </c>
       <c r="C295" t="n">
-        <v>4.44712248E8</v>
+        <v>4.44070901E8</v>
       </c>
       <c r="D295" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="E295" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="F295" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="G295" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="H295" t="s">
         <v>16</v>
@@ -14670,7 +14670,7 @@
         <v>18</v>
       </c>
       <c r="K295" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="L295" t="n">
         <v>0.0</v>
@@ -14684,19 +14684,19 @@
         <v>2.0</v>
       </c>
       <c r="C296" t="n">
-        <v>4.44712356E8</v>
+        <v>4.44712248E8</v>
       </c>
       <c r="D296" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="E296" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="F296" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="G296" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="H296" t="s">
         <v>16</v>
@@ -14708,7 +14708,7 @@
         <v>18</v>
       </c>
       <c r="K296" t="s">
-        <v>527</v>
+        <v>1116</v>
       </c>
       <c r="L296" t="n">
         <v>0.0</v>
@@ -14722,19 +14722,19 @@
         <v>2.0</v>
       </c>
       <c r="C297" t="n">
-        <v>4.44894443E8</v>
+        <v>4.44712356E8</v>
       </c>
       <c r="D297" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E297" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F297" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G297" t="s">
         <v>1119</v>
-      </c>
-      <c r="E297" t="s">
-        <v>1120</v>
-      </c>
-      <c r="F297" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G297" t="s">
-        <v>1122</v>
       </c>
       <c r="H297" t="s">
         <v>16</v>
@@ -14746,7 +14746,7 @@
         <v>18</v>
       </c>
       <c r="K297" t="s">
-        <v>1110</v>
+        <v>527</v>
       </c>
       <c r="L297" t="n">
         <v>0.0</v>
@@ -14760,19 +14760,19 @@
         <v>2.0</v>
       </c>
       <c r="C298" t="n">
-        <v>4.47961975E8</v>
+        <v>4.44894443E8</v>
       </c>
       <c r="D298" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E298" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F298" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G298" t="s">
         <v>1123</v>
-      </c>
-      <c r="E298" t="s">
-        <v>1124</v>
-      </c>
-      <c r="F298" t="s">
-        <v>1125</v>
-      </c>
-      <c r="G298" t="s">
-        <v>1126</v>
       </c>
       <c r="H298" t="s">
         <v>16</v>
@@ -14784,7 +14784,7 @@
         <v>18</v>
       </c>
       <c r="K298" t="s">
-        <v>345</v>
+        <v>1111</v>
       </c>
       <c r="L298" t="n">
         <v>0.0</v>
@@ -14798,19 +14798,19 @@
         <v>2.0</v>
       </c>
       <c r="C299" t="n">
-        <v>2.819252E8</v>
+        <v>4.47961975E8</v>
       </c>
       <c r="D299" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E299" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F299" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G299" t="s">
         <v>1127</v>
-      </c>
-      <c r="E299" t="s">
-        <v>449</v>
-      </c>
-      <c r="F299" t="s">
-        <v>675</v>
-      </c>
-      <c r="G299" t="s">
-        <v>676</v>
       </c>
       <c r="H299" t="s">
         <v>16</v>
@@ -14822,7 +14822,7 @@
         <v>18</v>
       </c>
       <c r="K299" t="s">
-        <v>677</v>
+        <v>345</v>
       </c>
       <c r="L299" t="n">
         <v>0.0</v>

--- a/patents.xlsx
+++ b/patents.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3074" uniqueCount="1286">
   <si>
     <t>RAP - Patent ID</t>
   </si>
@@ -3402,6 +3402,468 @@
   </si>
   <si>
     <t>CN20151571622</t>
+  </si>
+  <si>
+    <t>201398211</t>
+  </si>
+  <si>
+    <t>2010-02-03</t>
+  </si>
+  <si>
+    <t>200920153709</t>
+  </si>
+  <si>
+    <t>CN20092153709U</t>
+  </si>
+  <si>
+    <t>2009-05-08</t>
+  </si>
+  <si>
+    <t>201639671</t>
+  </si>
+  <si>
+    <t>2010-11-17</t>
+  </si>
+  <si>
+    <t>201020171457</t>
+  </si>
+  <si>
+    <t>CN20102171457U</t>
+  </si>
+  <si>
+    <t>2010-04-27</t>
+  </si>
+  <si>
+    <t>201698510</t>
+  </si>
+  <si>
+    <t>2011-01-05</t>
+  </si>
+  <si>
+    <t>201020209148</t>
+  </si>
+  <si>
+    <t>CN20102209148U</t>
+  </si>
+  <si>
+    <t>2010-05-31</t>
+  </si>
+  <si>
+    <t>201698511</t>
+  </si>
+  <si>
+    <t>201020209162</t>
+  </si>
+  <si>
+    <t>CN20102209162U</t>
+  </si>
+  <si>
+    <t>102254369</t>
+  </si>
+  <si>
+    <t>2013-02-13</t>
+  </si>
+  <si>
+    <t>201110029403</t>
+  </si>
+  <si>
+    <t>CN2011129403</t>
+  </si>
+  <si>
+    <t>2011-01-27</t>
+  </si>
+  <si>
+    <t>102254367</t>
+  </si>
+  <si>
+    <t>2013-01-23</t>
+  </si>
+  <si>
+    <t>201010187187</t>
+  </si>
+  <si>
+    <t>CN20101187187</t>
+  </si>
+  <si>
+    <t>102495897</t>
+  </si>
+  <si>
+    <t>2012-06-13</t>
+  </si>
+  <si>
+    <t>201110419843</t>
+  </si>
+  <si>
+    <t>CN20111419843</t>
+  </si>
+  <si>
+    <t>2011-12-15</t>
+  </si>
+  <si>
+    <t>102542656</t>
+  </si>
+  <si>
+    <t>2015-01-14</t>
+  </si>
+  <si>
+    <t>201110460381</t>
+  </si>
+  <si>
+    <t>CN20111460381</t>
+  </si>
+  <si>
+    <t>2011-12-31</t>
+  </si>
+  <si>
+    <t>102592345</t>
+  </si>
+  <si>
+    <t>201210050503</t>
+  </si>
+  <si>
+    <t>CN2012150503</t>
+  </si>
+  <si>
+    <t>2012-02-29</t>
+  </si>
+  <si>
+    <t>202383766</t>
+  </si>
+  <si>
+    <t>2012-08-15</t>
+  </si>
+  <si>
+    <t>201120575299</t>
+  </si>
+  <si>
+    <t>CN20112575299U</t>
+  </si>
+  <si>
+    <t>202422259</t>
+  </si>
+  <si>
+    <t>2012-09-05</t>
+  </si>
+  <si>
+    <t>201120575438</t>
+  </si>
+  <si>
+    <t>CN20112575438U</t>
+  </si>
+  <si>
+    <t>202404593</t>
+  </si>
+  <si>
+    <t>201120525251</t>
+  </si>
+  <si>
+    <t>CN20112525251U</t>
+  </si>
+  <si>
+    <t>202443521</t>
+  </si>
+  <si>
+    <t>2012-09-19</t>
+  </si>
+  <si>
+    <t>201220072238</t>
+  </si>
+  <si>
+    <t>CN2012272238U</t>
+  </si>
+  <si>
+    <t>102819727</t>
+  </si>
+  <si>
+    <t>2015-08-26</t>
+  </si>
+  <si>
+    <t>201210243499</t>
+  </si>
+  <si>
+    <t>CN20121243499</t>
+  </si>
+  <si>
+    <t>2012-07-13</t>
+  </si>
+  <si>
+    <t>102855474</t>
+  </si>
+  <si>
+    <t>201210344770</t>
+  </si>
+  <si>
+    <t>CN20121344770</t>
+  </si>
+  <si>
+    <t>2012-09-17</t>
+  </si>
+  <si>
+    <t>102855705</t>
+  </si>
+  <si>
+    <t>201210344840</t>
+  </si>
+  <si>
+    <t>CN20121344840</t>
+  </si>
+  <si>
+    <t>102855715</t>
+  </si>
+  <si>
+    <t>201210344881</t>
+  </si>
+  <si>
+    <t>CN20121344881</t>
+  </si>
+  <si>
+    <t>202662029</t>
+  </si>
+  <si>
+    <t>2013-01-09</t>
+  </si>
+  <si>
+    <t>201220341861</t>
+  </si>
+  <si>
+    <t>CN20122341861U</t>
+  </si>
+  <si>
+    <t>103077494</t>
+  </si>
+  <si>
+    <t>201310007057</t>
+  </si>
+  <si>
+    <t>CN2013107057</t>
+  </si>
+  <si>
+    <t>202771549</t>
+  </si>
+  <si>
+    <t>2013-03-06</t>
+  </si>
+  <si>
+    <t>201220474222</t>
+  </si>
+  <si>
+    <t>CN20122474222U</t>
+  </si>
+  <si>
+    <t>202771558</t>
+  </si>
+  <si>
+    <t>201220474194</t>
+  </si>
+  <si>
+    <t>CN20122474194U</t>
+  </si>
+  <si>
+    <t>202854836</t>
+  </si>
+  <si>
+    <t>201220474261</t>
+  </si>
+  <si>
+    <t>CN20122474261U</t>
+  </si>
+  <si>
+    <t>103365971</t>
+  </si>
+  <si>
+    <t>201310260309</t>
+  </si>
+  <si>
+    <t>CN20131260309</t>
+  </si>
+  <si>
+    <t>2013-06-27</t>
+  </si>
+  <si>
+    <t>103365972</t>
+  </si>
+  <si>
+    <t>201310261572</t>
+  </si>
+  <si>
+    <t>CN20131261572</t>
+  </si>
+  <si>
+    <t>203299917</t>
+  </si>
+  <si>
+    <t>201320009972</t>
+  </si>
+  <si>
+    <t>CN2013209972U</t>
+  </si>
+  <si>
+    <t>203311509</t>
+  </si>
+  <si>
+    <t>2013-11-27</t>
+  </si>
+  <si>
+    <t>201320010869</t>
+  </si>
+  <si>
+    <t>CN2013210869U</t>
+  </si>
+  <si>
+    <t>103440622</t>
+  </si>
+  <si>
+    <t>2013-12-11</t>
+  </si>
+  <si>
+    <t>201310329444</t>
+  </si>
+  <si>
+    <t>CN20131329444</t>
+  </si>
+  <si>
+    <t>103473702</t>
+  </si>
+  <si>
+    <t>2013-12-25</t>
+  </si>
+  <si>
+    <t>201310373189</t>
+  </si>
+  <si>
+    <t>CN20131373189</t>
+  </si>
+  <si>
+    <t>103532927</t>
+  </si>
+  <si>
+    <t>2014-01-22</t>
+  </si>
+  <si>
+    <t>201310326064</t>
+  </si>
+  <si>
+    <t>CN20131326064</t>
+  </si>
+  <si>
+    <t>2013-07-30</t>
+  </si>
+  <si>
+    <t>103723340</t>
+  </si>
+  <si>
+    <t>201310751354</t>
+  </si>
+  <si>
+    <t>CN20131751354</t>
+  </si>
+  <si>
+    <t>103729932</t>
+  </si>
+  <si>
+    <t>201310736968</t>
+  </si>
+  <si>
+    <t>CN20131736968</t>
+  </si>
+  <si>
+    <t>2013-12-26</t>
+  </si>
+  <si>
+    <t>103745184</t>
+  </si>
+  <si>
+    <t>2014-04-23</t>
+  </si>
+  <si>
+    <t>201310731418</t>
+  </si>
+  <si>
+    <t>CN20131731418</t>
+  </si>
+  <si>
+    <t>103745199</t>
+  </si>
+  <si>
+    <t>201310751017</t>
+  </si>
+  <si>
+    <t>CN20131751017</t>
+  </si>
+  <si>
+    <t>103745522</t>
+  </si>
+  <si>
+    <t>201310731432</t>
+  </si>
+  <si>
+    <t>CN20131731432</t>
+  </si>
+  <si>
+    <t>103745523</t>
+  </si>
+  <si>
+    <t>201310733869</t>
+  </si>
+  <si>
+    <t>CN20131733869</t>
+  </si>
+  <si>
+    <t>103753975</t>
+  </si>
+  <si>
+    <t>201310737840</t>
+  </si>
+  <si>
+    <t>CN20131737840</t>
+  </si>
+  <si>
+    <t>103753976</t>
+  </si>
+  <si>
+    <t>201310749712</t>
+  </si>
+  <si>
+    <t>CN20131749712</t>
+  </si>
+  <si>
+    <t>203652276</t>
+  </si>
+  <si>
+    <t>201320890585</t>
+  </si>
+  <si>
+    <t>CN20132890585U</t>
+  </si>
+  <si>
+    <t>203659120</t>
+  </si>
+  <si>
+    <t>201320890412</t>
+  </si>
+  <si>
+    <t>CN20132890412U</t>
+  </si>
+  <si>
+    <t>203727013</t>
+  </si>
+  <si>
+    <t>2014-07-23</t>
+  </si>
+  <si>
+    <t>201320875338</t>
+  </si>
+  <si>
+    <t>CN20132875338U</t>
+  </si>
+  <si>
+    <t>203752712</t>
+  </si>
+  <si>
+    <t>201320875302</t>
+  </si>
+  <si>
+    <t>CN20132875302U</t>
   </si>
   <si>
     <t>100448215</t>
@@ -16637,7 +17099,7 @@
         <v>2.0</v>
       </c>
       <c r="C300" t="n">
-        <v>2.81925203E8</v>
+        <v>3.18153082E8</v>
       </c>
       <c r="D300" t="s">
         <v>1130</v>
@@ -16646,30 +17108,1834 @@
         <v>1131</v>
       </c>
       <c r="F300" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G300" t="n">
+        <v>4.1620742E7</v>
+      </c>
+      <c r="H300" t="s">
+        <v>1133</v>
+      </c>
+      <c r="I300" t="s">
+        <v>36</v>
+      </c>
+      <c r="J300" t="s">
+        <v>19</v>
+      </c>
+      <c r="K300" t="s">
+        <v>37</v>
+      </c>
+      <c r="L300" t="s">
+        <v>1134</v>
+      </c>
+      <c r="M300" t="s">
+        <v>1134</v>
+      </c>
+      <c r="N300" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>417.0</v>
+      </c>
+      <c r="B301" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C301" t="n">
+        <v>3.31470011E8</v>
+      </c>
+      <c r="D301" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E301" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F301" t="s">
+        <v>1137</v>
+      </c>
+      <c r="G301" t="n">
+        <v>4.3084176E7</v>
+      </c>
+      <c r="H301" t="s">
+        <v>1138</v>
+      </c>
+      <c r="I301" t="s">
+        <v>36</v>
+      </c>
+      <c r="J301" t="s">
+        <v>19</v>
+      </c>
+      <c r="K301" t="s">
+        <v>37</v>
+      </c>
+      <c r="L301" t="s">
+        <v>1139</v>
+      </c>
+      <c r="M301" t="s">
+        <v>1139</v>
+      </c>
+      <c r="N301" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>418.0</v>
+      </c>
+      <c r="B302" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C302" t="n">
+        <v>3.32898655E8</v>
+      </c>
+      <c r="D302" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E302" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F302" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G302" t="n">
+        <v>4.3399756E7</v>
+      </c>
+      <c r="H302" t="s">
+        <v>1143</v>
+      </c>
+      <c r="I302" t="s">
+        <v>36</v>
+      </c>
+      <c r="J302" t="s">
+        <v>19</v>
+      </c>
+      <c r="K302" t="s">
+        <v>37</v>
+      </c>
+      <c r="L302" t="s">
+        <v>1144</v>
+      </c>
+      <c r="M302" t="s">
+        <v>1144</v>
+      </c>
+      <c r="N302" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>419.0</v>
+      </c>
+      <c r="B303" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C303" t="n">
+        <v>3.32917755E8</v>
+      </c>
+      <c r="D303" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E303" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F303" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G303" t="n">
+        <v>4.3399757E7</v>
+      </c>
+      <c r="H303" t="s">
+        <v>1147</v>
+      </c>
+      <c r="I303" t="s">
+        <v>36</v>
+      </c>
+      <c r="J303" t="s">
+        <v>19</v>
+      </c>
+      <c r="K303" t="s">
+        <v>37</v>
+      </c>
+      <c r="L303" t="s">
+        <v>1144</v>
+      </c>
+      <c r="M303" t="s">
+        <v>1144</v>
+      </c>
+      <c r="N303" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>420.0</v>
+      </c>
+      <c r="B304" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C304" t="n">
+        <v>3.84381106E8</v>
+      </c>
+      <c r="D304" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E304" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F304" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G304" t="n">
+        <v>4.498161E7</v>
+      </c>
+      <c r="H304" t="s">
+        <v>1151</v>
+      </c>
+      <c r="I304" t="s">
+        <v>18</v>
+      </c>
+      <c r="J304" t="s">
+        <v>19</v>
+      </c>
+      <c r="K304" t="s">
+        <v>20</v>
+      </c>
+      <c r="L304" t="s">
+        <v>1152</v>
+      </c>
+      <c r="M304" t="s">
+        <v>1152</v>
+      </c>
+      <c r="N304" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>421.0</v>
+      </c>
+      <c r="B305" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C305" t="n">
+        <v>3.84381105E8</v>
+      </c>
+      <c r="D305" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E305" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F305" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G305" t="n">
+        <v>4.4981608E7</v>
+      </c>
+      <c r="H305" t="s">
+        <v>1156</v>
+      </c>
+      <c r="I305" t="s">
+        <v>18</v>
+      </c>
+      <c r="J305" t="s">
+        <v>19</v>
+      </c>
+      <c r="K305" t="s">
+        <v>20</v>
+      </c>
+      <c r="L305" t="s">
+        <v>1144</v>
+      </c>
+      <c r="M305" t="s">
+        <v>1144</v>
+      </c>
+      <c r="N305" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>422.0</v>
+      </c>
+      <c r="B306" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C306" t="n">
+        <v>3.6541887E8</v>
+      </c>
+      <c r="D306" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E306" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F306" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G306" t="n">
+        <v>4.6187722E7</v>
+      </c>
+      <c r="H306" t="s">
+        <v>1160</v>
+      </c>
+      <c r="I306" t="s">
+        <v>18</v>
+      </c>
+      <c r="J306" t="s">
+        <v>19</v>
+      </c>
+      <c r="K306" t="s">
+        <v>20</v>
+      </c>
+      <c r="L306" t="s">
+        <v>1161</v>
+      </c>
+      <c r="M306" t="s">
+        <v>1161</v>
+      </c>
+      <c r="N306" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>423.0</v>
+      </c>
+      <c r="B307" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C307" t="n">
+        <v>4.25443499E8</v>
+      </c>
+      <c r="D307" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E307" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F307" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G307" t="n">
+        <v>4.6349462E7</v>
+      </c>
+      <c r="H307" t="s">
+        <v>1165</v>
+      </c>
+      <c r="I307" t="s">
+        <v>18</v>
+      </c>
+      <c r="J307" t="s">
+        <v>19</v>
+      </c>
+      <c r="K307" t="s">
+        <v>20</v>
+      </c>
+      <c r="L307" t="s">
+        <v>1166</v>
+      </c>
+      <c r="M307" t="s">
+        <v>1166</v>
+      </c>
+      <c r="N307" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>424.0</v>
+      </c>
+      <c r="B308" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C308" t="n">
+        <v>4.25651492E8</v>
+      </c>
+      <c r="D308" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E308" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F308" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G308" t="n">
+        <v>4.6480928E7</v>
+      </c>
+      <c r="H308" t="s">
+        <v>1169</v>
+      </c>
+      <c r="I308" t="s">
+        <v>18</v>
+      </c>
+      <c r="J308" t="s">
+        <v>19</v>
+      </c>
+      <c r="K308" t="s">
+        <v>20</v>
+      </c>
+      <c r="L308" t="s">
+        <v>1170</v>
+      </c>
+      <c r="M308" t="s">
+        <v>1166</v>
+      </c>
+      <c r="N308" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>425.0</v>
+      </c>
+      <c r="B309" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C309" t="n">
+        <v>3.78041819E8</v>
+      </c>
+      <c r="D309" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E309" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F309" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G309" t="n">
+        <v>4.6632254E7</v>
+      </c>
+      <c r="H309" t="s">
+        <v>1174</v>
+      </c>
+      <c r="I309" t="s">
+        <v>36</v>
+      </c>
+      <c r="J309" t="s">
+        <v>19</v>
+      </c>
+      <c r="K309" t="s">
+        <v>37</v>
+      </c>
+      <c r="L309" t="s">
+        <v>1166</v>
+      </c>
+      <c r="M309" t="s">
+        <v>1166</v>
+      </c>
+      <c r="N309" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>426.0</v>
+      </c>
+      <c r="B310" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C310" t="n">
+        <v>3.7845763E8</v>
+      </c>
+      <c r="D310" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E310" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F310" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G310" t="n">
+        <v>4.6746997E7</v>
+      </c>
+      <c r="H310" t="s">
+        <v>1178</v>
+      </c>
+      <c r="I310" t="s">
+        <v>36</v>
+      </c>
+      <c r="J310" t="s">
+        <v>19</v>
+      </c>
+      <c r="K310" t="s">
+        <v>37</v>
+      </c>
+      <c r="L310" t="s">
+        <v>1166</v>
+      </c>
+      <c r="M310" t="s">
+        <v>1166</v>
+      </c>
+      <c r="N310" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>427.0</v>
+      </c>
+      <c r="B311" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C311" t="n">
+        <v>3.78730653E8</v>
+      </c>
+      <c r="D311" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E311" t="s">
+        <v>652</v>
+      </c>
+      <c r="F311" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G311" t="n">
+        <v>4.6702228E7</v>
+      </c>
+      <c r="H311" t="s">
+        <v>1181</v>
+      </c>
+      <c r="I311" t="s">
+        <v>36</v>
+      </c>
+      <c r="J311" t="s">
+        <v>19</v>
+      </c>
+      <c r="K311" t="s">
+        <v>37</v>
+      </c>
+      <c r="L311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="M311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="N311" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>428.0</v>
+      </c>
+      <c r="B312" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C312" t="n">
+        <v>3.78870944E8</v>
+      </c>
+      <c r="D312" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E312" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F312" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G312" t="n">
+        <v>4.6480928E7</v>
+      </c>
+      <c r="H312" t="s">
+        <v>1185</v>
+      </c>
+      <c r="I312" t="s">
+        <v>36</v>
+      </c>
+      <c r="J312" t="s">
+        <v>19</v>
+      </c>
+      <c r="K312" t="s">
+        <v>37</v>
+      </c>
+      <c r="L312" t="s">
+        <v>1170</v>
+      </c>
+      <c r="M312" t="s">
+        <v>1166</v>
+      </c>
+      <c r="N312" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>429.0</v>
+      </c>
+      <c r="B313" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C313" t="n">
+        <v>4.43975924E8</v>
+      </c>
+      <c r="D313" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E313" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F313" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G313" t="n">
+        <v>4.7303836E7</v>
+      </c>
+      <c r="H313" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I313" t="s">
+        <v>18</v>
+      </c>
+      <c r="J313" t="s">
+        <v>19</v>
+      </c>
+      <c r="K313" t="s">
+        <v>20</v>
+      </c>
+      <c r="L313" t="s">
+        <v>1190</v>
+      </c>
+      <c r="M313" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N313" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>430.0</v>
+      </c>
+      <c r="B314" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C314" t="n">
+        <v>4.40814594E8</v>
+      </c>
+      <c r="D314" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E314" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F314" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G314" t="n">
+        <v>4.7402052E7</v>
+      </c>
+      <c r="H314" t="s">
+        <v>1193</v>
+      </c>
+      <c r="I314" t="s">
+        <v>18</v>
+      </c>
+      <c r="J314" t="s">
+        <v>19</v>
+      </c>
+      <c r="K314" t="s">
+        <v>20</v>
+      </c>
+      <c r="L314" t="s">
+        <v>1194</v>
+      </c>
+      <c r="M314" t="s">
+        <v>1194</v>
+      </c>
+      <c r="N314" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>431.0</v>
+      </c>
+      <c r="B315" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C315" t="n">
+        <v>4.20143221E8</v>
+      </c>
+      <c r="D315" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E315" t="s">
+        <v>966</v>
+      </c>
+      <c r="F315" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G315" t="n">
+        <v>4.7402258E7</v>
+      </c>
+      <c r="H315" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I315" t="s">
+        <v>18</v>
+      </c>
+      <c r="J315" t="s">
+        <v>19</v>
+      </c>
+      <c r="K315" t="s">
+        <v>20</v>
+      </c>
+      <c r="L315" t="s">
+        <v>1194</v>
+      </c>
+      <c r="M315" t="s">
+        <v>1194</v>
+      </c>
+      <c r="N315" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>432.0</v>
+      </c>
+      <c r="B316" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C316" t="n">
+        <v>4.40814595E8</v>
+      </c>
+      <c r="D316" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E316" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F316" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G316" t="n">
+        <v>4.7402263E7</v>
+      </c>
+      <c r="H316" t="s">
+        <v>1200</v>
+      </c>
+      <c r="I316" t="s">
+        <v>18</v>
+      </c>
+      <c r="J316" t="s">
+        <v>19</v>
+      </c>
+      <c r="K316" t="s">
+        <v>20</v>
+      </c>
+      <c r="L316" t="s">
+        <v>1194</v>
+      </c>
+      <c r="M316" t="s">
+        <v>1194</v>
+      </c>
+      <c r="N316" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>433.0</v>
+      </c>
+      <c r="B317" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C317" t="n">
+        <v>3.84653116E8</v>
+      </c>
+      <c r="D317" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E317" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F317" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G317" t="n">
+        <v>4.7456919E7</v>
+      </c>
+      <c r="H317" t="s">
+        <v>1204</v>
+      </c>
+      <c r="I317" t="s">
+        <v>36</v>
+      </c>
+      <c r="J317" t="s">
+        <v>19</v>
+      </c>
+      <c r="K317" t="s">
+        <v>37</v>
+      </c>
+      <c r="L317" t="s">
+        <v>1190</v>
+      </c>
+      <c r="M317" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N317" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>434.0</v>
+      </c>
+      <c r="B318" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C318" t="n">
+        <v>4.50535327E8</v>
+      </c>
+      <c r="D318" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E318" t="s">
+        <v>617</v>
+      </c>
+      <c r="F318" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G318" t="n">
+        <v>4.8154013E7</v>
+      </c>
+      <c r="H318" t="s">
+        <v>1207</v>
+      </c>
+      <c r="I318" t="s">
+        <v>18</v>
+      </c>
+      <c r="J318" t="s">
+        <v>19</v>
+      </c>
+      <c r="K318" t="s">
+        <v>20</v>
+      </c>
+      <c r="L318" t="s">
+        <v>1202</v>
+      </c>
+      <c r="M318" t="s">
+        <v>1202</v>
+      </c>
+      <c r="N318" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>435.0</v>
+      </c>
+      <c r="B319" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C319" t="n">
+        <v>4.0798451E8</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E319" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F319" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G319" t="n">
+        <v>4.7778108E7</v>
+      </c>
+      <c r="H319" t="s">
+        <v>1211</v>
+      </c>
+      <c r="I319" t="s">
+        <v>36</v>
+      </c>
+      <c r="J319" t="s">
+        <v>19</v>
+      </c>
+      <c r="K319" t="s">
+        <v>37</v>
+      </c>
+      <c r="L319" t="s">
+        <v>1194</v>
+      </c>
+      <c r="M319" t="s">
+        <v>1194</v>
+      </c>
+      <c r="N319" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>436.0</v>
+      </c>
+      <c r="B320" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C320" t="n">
+        <v>4.07984515E8</v>
+      </c>
+      <c r="D320" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E320" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F320" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G320" t="n">
+        <v>4.7778117E7</v>
+      </c>
+      <c r="H320" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I320" t="s">
+        <v>36</v>
+      </c>
+      <c r="J320" t="s">
+        <v>19</v>
+      </c>
+      <c r="K320" t="s">
+        <v>37</v>
+      </c>
+      <c r="L320" t="s">
+        <v>1194</v>
+      </c>
+      <c r="M320" t="s">
+        <v>1194</v>
+      </c>
+      <c r="N320" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>437.0</v>
+      </c>
+      <c r="B321" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C321" t="n">
+        <v>4.08044224E8</v>
+      </c>
+      <c r="D321" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E321" t="s">
+        <v>625</v>
+      </c>
+      <c r="F321" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G321" t="n">
+        <v>4.7986008E7</v>
+      </c>
+      <c r="H321" t="s">
+        <v>1217</v>
+      </c>
+      <c r="I321" t="s">
+        <v>36</v>
+      </c>
+      <c r="J321" t="s">
+        <v>19</v>
+      </c>
+      <c r="K321" t="s">
+        <v>37</v>
+      </c>
+      <c r="L321" t="s">
+        <v>1194</v>
+      </c>
+      <c r="M321" t="s">
+        <v>1194</v>
+      </c>
+      <c r="N321" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>438.0</v>
+      </c>
+      <c r="B322" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C322" t="n">
+        <v>4.1153133E8</v>
+      </c>
+      <c r="D322" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E322" t="s">
+        <v>697</v>
+      </c>
+      <c r="F322" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G322" t="n">
+        <v>4.9367312E7</v>
+      </c>
+      <c r="H322" t="s">
+        <v>1220</v>
+      </c>
+      <c r="I322" t="s">
+        <v>18</v>
+      </c>
+      <c r="J322" t="s">
+        <v>19</v>
+      </c>
+      <c r="K322" t="s">
+        <v>20</v>
+      </c>
+      <c r="L322" t="s">
+        <v>1221</v>
+      </c>
+      <c r="M322" t="s">
+        <v>1221</v>
+      </c>
+      <c r="N322" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>439.0</v>
+      </c>
+      <c r="B323" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C323" t="n">
+        <v>4.11531332E8</v>
+      </c>
+      <c r="D323" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E323" t="s">
+        <v>697</v>
+      </c>
+      <c r="F323" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G323" t="n">
+        <v>4.9367313E7</v>
+      </c>
+      <c r="H323" t="s">
+        <v>1224</v>
+      </c>
+      <c r="I323" t="s">
+        <v>18</v>
+      </c>
+      <c r="J323" t="s">
+        <v>19</v>
+      </c>
+      <c r="K323" t="s">
+        <v>20</v>
+      </c>
+      <c r="L323" t="s">
+        <v>1221</v>
+      </c>
+      <c r="M323" t="s">
+        <v>1221</v>
+      </c>
+      <c r="N323" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>440.0</v>
+      </c>
+      <c r="B324" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C324" t="n">
+        <v>4.12492869E8</v>
+      </c>
+      <c r="D324" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E324" t="s">
+        <v>571</v>
+      </c>
+      <c r="F324" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G324" t="n">
+        <v>4.9575913E7</v>
+      </c>
+      <c r="H324" t="s">
+        <v>1227</v>
+      </c>
+      <c r="I324" t="s">
+        <v>36</v>
+      </c>
+      <c r="J324" t="s">
+        <v>19</v>
+      </c>
+      <c r="K324" t="s">
+        <v>37</v>
+      </c>
+      <c r="L324" t="s">
+        <v>1202</v>
+      </c>
+      <c r="M324" t="s">
+        <v>1202</v>
+      </c>
+      <c r="N324" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>441.0</v>
+      </c>
+      <c r="B325" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C325" t="n">
+        <v>4.12679117E8</v>
+      </c>
+      <c r="D325" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E325" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F325" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G325" t="n">
+        <v>4.96177E7</v>
+      </c>
+      <c r="H325" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I325" t="s">
+        <v>36</v>
+      </c>
+      <c r="J325" t="s">
+        <v>19</v>
+      </c>
+      <c r="K325" t="s">
+        <v>37</v>
+      </c>
+      <c r="L325" t="s">
+        <v>1202</v>
+      </c>
+      <c r="M325" t="s">
+        <v>1202</v>
+      </c>
+      <c r="N325" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>442.0</v>
+      </c>
+      <c r="B326" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C326" t="n">
+        <v>4.13168469E8</v>
+      </c>
+      <c r="D326" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E326" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F326" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G326" t="n">
+        <v>4.9694314E7</v>
+      </c>
+      <c r="H326" t="s">
+        <v>1235</v>
+      </c>
+      <c r="I326" t="s">
+        <v>18</v>
+      </c>
+      <c r="J326" t="s">
+        <v>19</v>
+      </c>
+      <c r="K326" t="s">
+        <v>20</v>
+      </c>
+      <c r="L326" t="s">
+        <v>460</v>
+      </c>
+      <c r="M326" t="s">
+        <v>460</v>
+      </c>
+      <c r="N326" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>443.0</v>
+      </c>
+      <c r="B327" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C327" t="n">
+        <v>4.13654506E8</v>
+      </c>
+      <c r="D327" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E327" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F327" t="s">
+        <v>1238</v>
+      </c>
+      <c r="G327" t="n">
+        <v>4.9798539E7</v>
+      </c>
+      <c r="H327" t="s">
+        <v>1239</v>
+      </c>
+      <c r="I327" t="s">
+        <v>18</v>
+      </c>
+      <c r="J327" t="s">
+        <v>19</v>
+      </c>
+      <c r="K327" t="s">
+        <v>20</v>
+      </c>
+      <c r="L327" t="s">
+        <v>576</v>
+      </c>
+      <c r="M327" t="s">
+        <v>576</v>
+      </c>
+      <c r="N327" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>444.0</v>
+      </c>
+      <c r="B328" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C328" t="n">
+        <v>4.14210111E8</v>
+      </c>
+      <c r="D328" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E328" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F328" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G328" t="n">
+        <v>4.9934607E7</v>
+      </c>
+      <c r="H328" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I328" t="s">
+        <v>18</v>
+      </c>
+      <c r="J328" t="s">
+        <v>19</v>
+      </c>
+      <c r="K328" t="s">
+        <v>20</v>
+      </c>
+      <c r="L328" t="s">
+        <v>1244</v>
+      </c>
+      <c r="M328" t="s">
+        <v>1244</v>
+      </c>
+      <c r="N328" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>445.0</v>
+      </c>
+      <c r="B329" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C329" t="n">
+        <v>4.1698981E8</v>
+      </c>
+      <c r="D329" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E329" t="s">
+        <v>964</v>
+      </c>
+      <c r="F329" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G329" t="n">
+        <v>5.0447698E7</v>
+      </c>
+      <c r="H329" t="s">
+        <v>1247</v>
+      </c>
+      <c r="I329" t="s">
+        <v>18</v>
+      </c>
+      <c r="J329" t="s">
+        <v>19</v>
+      </c>
+      <c r="K329" t="s">
+        <v>20</v>
+      </c>
+      <c r="L329" t="s">
+        <v>262</v>
+      </c>
+      <c r="M329" t="s">
+        <v>262</v>
+      </c>
+      <c r="N329" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>446.0</v>
+      </c>
+      <c r="B330" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C330" t="n">
+        <v>4.1700299E8</v>
+      </c>
+      <c r="D330" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E330" t="s">
+        <v>964</v>
+      </c>
+      <c r="F330" t="s">
+        <v>1249</v>
+      </c>
+      <c r="G330" t="n">
+        <v>5.0453992E7</v>
+      </c>
+      <c r="H330" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I330" t="s">
+        <v>18</v>
+      </c>
+      <c r="J330" t="s">
+        <v>19</v>
+      </c>
+      <c r="K330" t="s">
+        <v>20</v>
+      </c>
+      <c r="L330" t="s">
+        <v>1251</v>
+      </c>
+      <c r="M330" t="s">
+        <v>1251</v>
+      </c>
+      <c r="N330" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>447.0</v>
+      </c>
+      <c r="B331" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C331" t="n">
+        <v>4.17196913E8</v>
+      </c>
+      <c r="D331" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E331" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F331" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G331" t="n">
+        <v>5.0502201E7</v>
+      </c>
+      <c r="H331" t="s">
+        <v>1255</v>
+      </c>
+      <c r="I331" t="s">
+        <v>18</v>
+      </c>
+      <c r="J331" t="s">
+        <v>19</v>
+      </c>
+      <c r="K331" t="s">
+        <v>20</v>
+      </c>
+      <c r="L331" t="s">
+        <v>1251</v>
+      </c>
+      <c r="M331" t="s">
+        <v>1251</v>
+      </c>
+      <c r="N331" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>448.0</v>
+      </c>
+      <c r="B332" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C332" t="n">
+        <v>4.17196943E8</v>
+      </c>
+      <c r="D332" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E332" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F332" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G332" t="n">
+        <v>5.0502216E7</v>
+      </c>
+      <c r="H332" t="s">
+        <v>1258</v>
+      </c>
+      <c r="I332" t="s">
+        <v>18</v>
+      </c>
+      <c r="J332" t="s">
+        <v>19</v>
+      </c>
+      <c r="K332" t="s">
+        <v>20</v>
+      </c>
+      <c r="L332" t="s">
+        <v>262</v>
+      </c>
+      <c r="M332" t="s">
+        <v>262</v>
+      </c>
+      <c r="N332" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>449.0</v>
+      </c>
+      <c r="B333" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C333" t="n">
+        <v>4.17197589E8</v>
+      </c>
+      <c r="D333" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E333" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F333" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G333" t="n">
+        <v>5.0502537E7</v>
+      </c>
+      <c r="H333" t="s">
+        <v>1261</v>
+      </c>
+      <c r="I333" t="s">
+        <v>18</v>
+      </c>
+      <c r="J333" t="s">
+        <v>19</v>
+      </c>
+      <c r="K333" t="s">
+        <v>20</v>
+      </c>
+      <c r="L333" t="s">
+        <v>1251</v>
+      </c>
+      <c r="M333" t="s">
+        <v>1251</v>
+      </c>
+      <c r="N333" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="B334" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C334" t="n">
+        <v>4.17197591E8</v>
+      </c>
+      <c r="D334" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E334" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F334" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G334" t="n">
+        <v>5.0502538E7</v>
+      </c>
+      <c r="H334" t="s">
+        <v>1264</v>
+      </c>
+      <c r="I334" t="s">
+        <v>18</v>
+      </c>
+      <c r="J334" t="s">
+        <v>19</v>
+      </c>
+      <c r="K334" t="s">
+        <v>20</v>
+      </c>
+      <c r="L334" t="s">
+        <v>1251</v>
+      </c>
+      <c r="M334" t="s">
+        <v>1251</v>
+      </c>
+      <c r="N334" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>451.0</v>
+      </c>
+      <c r="B335" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C335" t="n">
+        <v>4.17291722E8</v>
+      </c>
+      <c r="D335" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E335" t="s">
+        <v>948</v>
+      </c>
+      <c r="F335" t="s">
+        <v>1266</v>
+      </c>
+      <c r="G335" t="n">
+        <v>5.0521362E7</v>
+      </c>
+      <c r="H335" t="s">
+        <v>1267</v>
+      </c>
+      <c r="I335" t="s">
+        <v>18</v>
+      </c>
+      <c r="J335" t="s">
+        <v>19</v>
+      </c>
+      <c r="K335" t="s">
+        <v>20</v>
+      </c>
+      <c r="L335" t="s">
+        <v>1251</v>
+      </c>
+      <c r="M335" t="s">
+        <v>1251</v>
+      </c>
+      <c r="N335" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>452.0</v>
+      </c>
+      <c r="B336" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C336" t="n">
+        <v>4.17291724E8</v>
+      </c>
+      <c r="D336" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E336" t="s">
+        <v>948</v>
+      </c>
+      <c r="F336" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G336" t="n">
+        <v>5.0521363E7</v>
+      </c>
+      <c r="H336" t="s">
+        <v>1270</v>
+      </c>
+      <c r="I336" t="s">
+        <v>18</v>
+      </c>
+      <c r="J336" t="s">
+        <v>19</v>
+      </c>
+      <c r="K336" t="s">
+        <v>20</v>
+      </c>
+      <c r="L336" t="s">
+        <v>262</v>
+      </c>
+      <c r="M336" t="s">
+        <v>262</v>
+      </c>
+      <c r="N336" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>453.0</v>
+      </c>
+      <c r="B337" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C337" t="n">
+        <v>4.19082395E8</v>
+      </c>
+      <c r="D337" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E337" t="s">
+        <v>243</v>
+      </c>
+      <c r="F337" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G337" t="n">
+        <v>5.0918694E7</v>
+      </c>
+      <c r="H337" t="s">
+        <v>1273</v>
+      </c>
+      <c r="I337" t="s">
+        <v>36</v>
+      </c>
+      <c r="J337" t="s">
+        <v>19</v>
+      </c>
+      <c r="K337" t="s">
+        <v>37</v>
+      </c>
+      <c r="L337" t="s">
+        <v>262</v>
+      </c>
+      <c r="M337" t="s">
+        <v>262</v>
+      </c>
+      <c r="N337" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>454.0</v>
+      </c>
+      <c r="B338" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C338" t="n">
+        <v>4.19096216E8</v>
+      </c>
+      <c r="D338" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E338" t="s">
+        <v>243</v>
+      </c>
+      <c r="F338" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G338" t="n">
+        <v>5.0925487E7</v>
+      </c>
+      <c r="H338" t="s">
+        <v>1276</v>
+      </c>
+      <c r="I338" t="s">
+        <v>36</v>
+      </c>
+      <c r="J338" t="s">
+        <v>19</v>
+      </c>
+      <c r="K338" t="s">
+        <v>37</v>
+      </c>
+      <c r="L338" t="s">
+        <v>262</v>
+      </c>
+      <c r="M338" t="s">
+        <v>262</v>
+      </c>
+      <c r="N338" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>455.0</v>
+      </c>
+      <c r="B339" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C339" t="n">
+        <v>4.20353185E8</v>
+      </c>
+      <c r="D339" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E339" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F339" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G339" t="n">
+        <v>5.1197116E7</v>
+      </c>
+      <c r="H339" t="s">
+        <v>1280</v>
+      </c>
+      <c r="I339" t="s">
+        <v>36</v>
+      </c>
+      <c r="J339" t="s">
+        <v>19</v>
+      </c>
+      <c r="K339" t="s">
+        <v>37</v>
+      </c>
+      <c r="L339" t="s">
+        <v>1251</v>
+      </c>
+      <c r="M339" t="s">
+        <v>1251</v>
+      </c>
+      <c r="N339" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>456.0</v>
+      </c>
+      <c r="B340" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C340" t="n">
+        <v>4.20643848E8</v>
+      </c>
+      <c r="D340" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E340" t="s">
+        <v>971</v>
+      </c>
+      <c r="F340" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G340" t="n">
+        <v>5.1248017E7</v>
+      </c>
+      <c r="H340" t="s">
+        <v>1283</v>
+      </c>
+      <c r="I340" t="s">
+        <v>36</v>
+      </c>
+      <c r="J340" t="s">
+        <v>19</v>
+      </c>
+      <c r="K340" t="s">
+        <v>37</v>
+      </c>
+      <c r="L340" t="s">
+        <v>1251</v>
+      </c>
+      <c r="M340" t="s">
+        <v>1251</v>
+      </c>
+      <c r="N340" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>457.0</v>
+      </c>
+      <c r="B341" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C341" t="n">
+        <v>2.81925203E8</v>
+      </c>
+      <c r="D341" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E341" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F341" t="s">
         <v>684</v>
       </c>
-      <c r="G300" t="n">
+      <c r="G341" t="n">
         <v>3.5067694E7</v>
       </c>
-      <c r="H300" t="s">
+      <c r="H341" t="s">
         <v>685</v>
       </c>
-      <c r="I300" t="s">
+      <c r="I341" t="s">
         <v>18</v>
       </c>
-      <c r="J300" t="s">
-        <v>19</v>
-      </c>
-      <c r="K300" t="s">
+      <c r="J341" t="s">
+        <v>19</v>
+      </c>
+      <c r="K341" t="s">
         <v>20</v>
       </c>
-      <c r="L300" t="s">
+      <c r="L341" t="s">
         <v>679</v>
       </c>
-      <c r="M300" t="s">
+      <c r="M341" t="s">
         <v>679</v>
       </c>
-      <c r="N300" t="n">
+      <c r="N341" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/patents.xlsx
+++ b/patents.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="770">
   <si>
     <t>RAP - Patent ID</t>
   </si>
@@ -1553,9 +1553,6 @@
     <t>102733960</t>
   </si>
   <si>
-    <t>2012-10-17</t>
-  </si>
-  <si>
     <t>201110082486</t>
   </si>
   <si>
@@ -1646,7 +1643,7 @@
     <t>101376335</t>
   </si>
   <si>
-    <t>2009-03-04</t>
+    <t>2011-08-17</t>
   </si>
   <si>
     <t>200810104362</t>
@@ -1739,7 +1736,7 @@
     <t>101335882</t>
   </si>
   <si>
-    <t>2008-12-31</t>
+    <t>2011-08-31</t>
   </si>
   <si>
     <t>200710041512</t>
@@ -1754,9 +1751,6 @@
     <t>101316349</t>
   </si>
   <si>
-    <t>2008-12-03</t>
-  </si>
-  <si>
     <t>200710041511</t>
   </si>
   <si>
@@ -2039,6 +2033,60 @@
     <t>2015-01-27</t>
   </si>
   <si>
+    <t>2012040922</t>
+  </si>
+  <si>
+    <t>2012-04-05</t>
+  </si>
+  <si>
+    <t>2010077478</t>
+  </si>
+  <si>
+    <t>WO2010CN77478</t>
+  </si>
+  <si>
+    <t>Undefined type(0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W </t>
+  </si>
+  <si>
+    <t>2015184797</t>
+  </si>
+  <si>
+    <t>2015-12-10</t>
+  </si>
+  <si>
+    <t>2015070175</t>
+  </si>
+  <si>
+    <t>WO2015CN70175</t>
+  </si>
+  <si>
+    <t>2015-01-06</t>
+  </si>
+  <si>
+    <t>2015184798</t>
+  </si>
+  <si>
+    <t>2015070181</t>
+  </si>
+  <si>
+    <t>WO2015CN70181</t>
+  </si>
+  <si>
+    <t>2016008285</t>
+  </si>
+  <si>
+    <t>2016-01-21</t>
+  </si>
+  <si>
+    <t>2015070184</t>
+  </si>
+  <si>
+    <t>WO2015CN70184</t>
+  </si>
+  <si>
     <t>2889292</t>
   </si>
   <si>
@@ -2057,22 +2105,28 @@
     <t>EP</t>
   </si>
   <si>
-    <t>2012040922</t>
-  </si>
-  <si>
-    <t>2012-04-05</t>
-  </si>
-  <si>
-    <t>2010077478</t>
-  </si>
-  <si>
-    <t>WO2010CN77478</t>
-  </si>
-  <si>
-    <t>Undefined type(0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W </t>
+    <t>2014029042</t>
+  </si>
+  <si>
+    <t>2014-02-27</t>
+  </si>
+  <si>
+    <t>2012001145</t>
+  </si>
+  <si>
+    <t>WO2012CN01145</t>
+  </si>
+  <si>
+    <t>2015232431</t>
+  </si>
+  <si>
+    <t>2015-08-20</t>
+  </si>
+  <si>
+    <t>201214422646</t>
+  </si>
+  <si>
+    <t>US201214422646</t>
   </si>
   <si>
     <t>2012088776</t>
@@ -2147,18 +2201,6 @@
     <t>2012-03-01</t>
   </si>
   <si>
-    <t>2014029042</t>
-  </si>
-  <si>
-    <t>2014-02-27</t>
-  </si>
-  <si>
-    <t>2012001145</t>
-  </si>
-  <si>
-    <t>WO2012CN01145</t>
-  </si>
-  <si>
     <t>2014089728</t>
   </si>
   <si>
@@ -2225,40 +2267,43 @@
     <t>WO2014CN00197</t>
   </si>
   <si>
-    <t>2015184797</t>
-  </si>
-  <si>
-    <t>2015-12-10</t>
-  </si>
-  <si>
-    <t>2015070175</t>
-  </si>
-  <si>
-    <t>WO2015CN70175</t>
-  </si>
-  <si>
-    <t>2015-01-06</t>
-  </si>
-  <si>
-    <t>2015184798</t>
-  </si>
-  <si>
-    <t>2015070181</t>
-  </si>
-  <si>
-    <t>WO2015CN70181</t>
-  </si>
-  <si>
-    <t>2016008285</t>
-  </si>
-  <si>
-    <t>2016-01-21</t>
-  </si>
-  <si>
-    <t>2015070184</t>
-  </si>
-  <si>
-    <t>WO2015CN70184</t>
+    <t>102408385</t>
+  </si>
+  <si>
+    <t>201110166067</t>
+  </si>
+  <si>
+    <t>CN20111166067</t>
+  </si>
+  <si>
+    <t>102408386</t>
+  </si>
+  <si>
+    <t>2014-05-07</t>
+  </si>
+  <si>
+    <t>201110212052</t>
+  </si>
+  <si>
+    <t>CN20111212052</t>
+  </si>
+  <si>
+    <t>102603659</t>
+  </si>
+  <si>
+    <t>201210051904</t>
+  </si>
+  <si>
+    <t>CN2012151904</t>
+  </si>
+  <si>
+    <t>102060780</t>
+  </si>
+  <si>
+    <t>201010606141</t>
+  </si>
+  <si>
+    <t>CN20101606141</t>
   </si>
   <si>
     <t>2013345436</t>
@@ -2277,18 +2322,6 @@
   </si>
   <si>
     <t>2015-04-28</t>
-  </si>
-  <si>
-    <t>2015232431</t>
-  </si>
-  <si>
-    <t>2015-08-20</t>
-  </si>
-  <si>
-    <t>201214422646</t>
-  </si>
-  <si>
-    <t>US201214422646</t>
   </si>
 </sst>
 </file>
@@ -8434,22 +8467,22 @@
         <v>1.0</v>
       </c>
       <c r="C139" t="n">
-        <v>3.81603953E8</v>
+        <v>4.40303526E8</v>
       </c>
       <c r="D139" t="s">
         <v>512</v>
       </c>
       <c r="E139" t="s">
+        <v>301</v>
+      </c>
+      <c r="F139" t="s">
         <v>513</v>
-      </c>
-      <c r="F139" t="s">
-        <v>514</v>
       </c>
       <c r="G139" t="n">
         <v>4.6990136E7</v>
       </c>
       <c r="H139" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I139" t="s">
         <v>35</v>
@@ -8467,7 +8500,7 @@
         <v>506</v>
       </c>
       <c r="N139" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="140">
@@ -8481,34 +8514,34 @@
         <v>3.39804504E8</v>
       </c>
       <c r="D140" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E140" t="s">
         <v>508</v>
       </c>
       <c r="F140" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G140" t="n">
         <v>4.484704E7</v>
       </c>
       <c r="H140" t="s">
+        <v>517</v>
+      </c>
+      <c r="I140" t="s">
+        <v>18</v>
+      </c>
+      <c r="J140" t="s">
+        <v>19</v>
+      </c>
+      <c r="K140" t="s">
+        <v>20</v>
+      </c>
+      <c r="L140" t="s">
         <v>518</v>
       </c>
-      <c r="I140" t="s">
-        <v>18</v>
-      </c>
-      <c r="J140" t="s">
-        <v>19</v>
-      </c>
-      <c r="K140" t="s">
-        <v>20</v>
-      </c>
-      <c r="L140" t="s">
-        <v>519</v>
-      </c>
       <c r="M140" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N140" t="n">
         <v>4.0</v>
@@ -8525,19 +8558,19 @@
         <v>3.36105325E8</v>
       </c>
       <c r="D141" t="s">
+        <v>519</v>
+      </c>
+      <c r="E141" t="s">
         <v>520</v>
       </c>
-      <c r="E141" t="s">
+      <c r="F141" t="s">
         <v>521</v>
-      </c>
-      <c r="F141" t="s">
-        <v>522</v>
       </c>
       <c r="G141" t="n">
         <v>4.4160502E7</v>
       </c>
       <c r="H141" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I141" t="s">
         <v>18</v>
@@ -8549,10 +8582,10 @@
         <v>20</v>
       </c>
       <c r="L141" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="M141" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N141" t="n">
         <v>2.0</v>
@@ -8569,19 +8602,19 @@
         <v>3.36447573E8</v>
       </c>
       <c r="D142" t="s">
+        <v>523</v>
+      </c>
+      <c r="E142" t="s">
+        <v>520</v>
+      </c>
+      <c r="F142" t="s">
         <v>524</v>
-      </c>
-      <c r="E142" t="s">
-        <v>521</v>
-      </c>
-      <c r="F142" t="s">
-        <v>525</v>
       </c>
       <c r="G142" t="n">
         <v>4.41605E7</v>
       </c>
       <c r="H142" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I142" t="s">
         <v>18</v>
@@ -8593,10 +8626,10 @@
         <v>20</v>
       </c>
       <c r="L142" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="M142" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N142" t="n">
         <v>2.0</v>
@@ -8613,34 +8646,34 @@
         <v>3.38567072E8</v>
       </c>
       <c r="D143" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E143" t="s">
         <v>503</v>
       </c>
       <c r="F143" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G143" t="n">
         <v>4.4670765E7</v>
       </c>
       <c r="H143" t="s">
+        <v>528</v>
+      </c>
+      <c r="I143" t="s">
+        <v>18</v>
+      </c>
+      <c r="J143" t="s">
+        <v>19</v>
+      </c>
+      <c r="K143" t="s">
+        <v>20</v>
+      </c>
+      <c r="L143" t="s">
         <v>529</v>
       </c>
-      <c r="I143" t="s">
-        <v>18</v>
-      </c>
-      <c r="J143" t="s">
-        <v>19</v>
-      </c>
-      <c r="K143" t="s">
-        <v>20</v>
-      </c>
-      <c r="L143" t="s">
-        <v>530</v>
-      </c>
       <c r="M143" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N143" t="n">
         <v>0.0</v>
@@ -8657,34 +8690,34 @@
         <v>3.38817501E8</v>
       </c>
       <c r="D144" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E144" t="s">
         <v>503</v>
       </c>
       <c r="F144" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G144" t="n">
         <v>4.4666102E7</v>
       </c>
       <c r="H144" t="s">
+        <v>532</v>
+      </c>
+      <c r="I144" t="s">
+        <v>18</v>
+      </c>
+      <c r="J144" t="s">
+        <v>19</v>
+      </c>
+      <c r="K144" t="s">
+        <v>20</v>
+      </c>
+      <c r="L144" t="s">
         <v>533</v>
       </c>
-      <c r="I144" t="s">
-        <v>18</v>
-      </c>
-      <c r="J144" t="s">
-        <v>19</v>
-      </c>
-      <c r="K144" t="s">
-        <v>20</v>
-      </c>
-      <c r="L144" t="s">
-        <v>534</v>
-      </c>
       <c r="M144" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="N144" t="n">
         <v>0.0</v>
@@ -8701,34 +8734,34 @@
         <v>3.3883073E8</v>
       </c>
       <c r="D145" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E145" t="s">
         <v>503</v>
       </c>
       <c r="F145" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G145" t="n">
         <v>4.4668496E7</v>
       </c>
       <c r="H145" t="s">
+        <v>536</v>
+      </c>
+      <c r="I145" t="s">
+        <v>18</v>
+      </c>
+      <c r="J145" t="s">
+        <v>19</v>
+      </c>
+      <c r="K145" t="s">
+        <v>20</v>
+      </c>
+      <c r="L145" t="s">
         <v>537</v>
       </c>
-      <c r="I145" t="s">
-        <v>18</v>
-      </c>
-      <c r="J145" t="s">
-        <v>19</v>
-      </c>
-      <c r="K145" t="s">
-        <v>20</v>
-      </c>
-      <c r="L145" t="s">
-        <v>538</v>
-      </c>
       <c r="M145" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N145" t="n">
         <v>11.0</v>
@@ -8745,19 +8778,19 @@
         <v>3.35102443E8</v>
       </c>
       <c r="D146" t="s">
+        <v>538</v>
+      </c>
+      <c r="E146" t="s">
         <v>539</v>
       </c>
-      <c r="E146" t="s">
+      <c r="F146" t="s">
         <v>540</v>
-      </c>
-      <c r="F146" t="s">
-        <v>541</v>
       </c>
       <c r="G146" t="n">
         <v>4.3914543E7</v>
       </c>
       <c r="H146" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I146" t="s">
         <v>18</v>
@@ -8769,10 +8802,10 @@
         <v>20</v>
       </c>
       <c r="L146" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="M146" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N146" t="n">
         <v>6.0</v>
@@ -8786,22 +8819,22 @@
         <v>1.0</v>
       </c>
       <c r="C147" t="n">
-        <v>2.76721884E8</v>
+        <v>3.39445448E8</v>
       </c>
       <c r="D147" t="s">
+        <v>542</v>
+      </c>
+      <c r="E147" t="s">
         <v>543</v>
       </c>
-      <c r="E147" t="s">
+      <c r="F147" t="s">
         <v>544</v>
-      </c>
-      <c r="F147" t="s">
-        <v>545</v>
       </c>
       <c r="G147" t="n">
         <v>4.0420119E7</v>
       </c>
       <c r="H147" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I147" t="s">
         <v>35</v>
@@ -8813,13 +8846,13 @@
         <v>36</v>
       </c>
       <c r="L147" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M147" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="N147" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="148">
@@ -8833,34 +8866,34 @@
         <v>3.32403014E8</v>
       </c>
       <c r="D148" t="s">
+        <v>547</v>
+      </c>
+      <c r="E148" t="s">
         <v>548</v>
       </c>
-      <c r="E148" t="s">
+      <c r="F148" t="s">
         <v>549</v>
-      </c>
-      <c r="F148" t="s">
-        <v>550</v>
       </c>
       <c r="G148" t="n">
         <v>4.3344592E7</v>
       </c>
       <c r="H148" t="s">
+        <v>550</v>
+      </c>
+      <c r="I148" t="s">
+        <v>18</v>
+      </c>
+      <c r="J148" t="s">
+        <v>19</v>
+      </c>
+      <c r="K148" t="s">
+        <v>20</v>
+      </c>
+      <c r="L148" t="s">
         <v>551</v>
       </c>
-      <c r="I148" t="s">
-        <v>18</v>
-      </c>
-      <c r="J148" t="s">
-        <v>19</v>
-      </c>
-      <c r="K148" t="s">
-        <v>20</v>
-      </c>
-      <c r="L148" t="s">
-        <v>552</v>
-      </c>
       <c r="M148" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N148" t="n">
         <v>1.0</v>
@@ -8877,19 +8910,19 @@
         <v>3.32426386E8</v>
       </c>
       <c r="D149" t="s">
+        <v>552</v>
+      </c>
+      <c r="E149" t="s">
+        <v>548</v>
+      </c>
+      <c r="F149" t="s">
         <v>553</v>
-      </c>
-      <c r="E149" t="s">
-        <v>549</v>
-      </c>
-      <c r="F149" t="s">
-        <v>554</v>
       </c>
       <c r="G149" t="n">
         <v>4.3346011E7</v>
       </c>
       <c r="H149" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I149" t="s">
         <v>18</v>
@@ -8901,10 +8934,10 @@
         <v>20</v>
       </c>
       <c r="L149" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="M149" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N149" t="n">
         <v>2.0</v>
@@ -8921,19 +8954,19 @@
         <v>3.32490016E8</v>
       </c>
       <c r="D150" t="s">
+        <v>555</v>
+      </c>
+      <c r="E150" t="s">
+        <v>548</v>
+      </c>
+      <c r="F150" t="s">
         <v>556</v>
-      </c>
-      <c r="E150" t="s">
-        <v>549</v>
-      </c>
-      <c r="F150" t="s">
-        <v>557</v>
       </c>
       <c r="G150" t="n">
         <v>4.334461E7</v>
       </c>
       <c r="H150" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I150" t="s">
         <v>18</v>
@@ -8945,10 +8978,10 @@
         <v>20</v>
       </c>
       <c r="L150" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="M150" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N150" t="n">
         <v>0.0</v>
@@ -8965,19 +8998,19 @@
         <v>3.32490182E8</v>
       </c>
       <c r="D151" t="s">
+        <v>558</v>
+      </c>
+      <c r="E151" t="s">
+        <v>548</v>
+      </c>
+      <c r="F151" t="s">
         <v>559</v>
-      </c>
-      <c r="E151" t="s">
-        <v>549</v>
-      </c>
-      <c r="F151" t="s">
-        <v>560</v>
       </c>
       <c r="G151" t="n">
         <v>4.3344591E7</v>
       </c>
       <c r="H151" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I151" t="s">
         <v>18</v>
@@ -8989,10 +9022,10 @@
         <v>20</v>
       </c>
       <c r="L151" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="M151" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N151" t="n">
         <v>2.0</v>
@@ -9009,19 +9042,19 @@
         <v>3.32496882E8</v>
       </c>
       <c r="D152" t="s">
+        <v>561</v>
+      </c>
+      <c r="E152" t="s">
+        <v>548</v>
+      </c>
+      <c r="F152" t="s">
         <v>562</v>
-      </c>
-      <c r="E152" t="s">
-        <v>549</v>
-      </c>
-      <c r="F152" t="s">
-        <v>563</v>
       </c>
       <c r="G152" t="n">
         <v>4.3344618E7</v>
       </c>
       <c r="H152" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I152" t="s">
         <v>18</v>
@@ -9033,10 +9066,10 @@
         <v>20</v>
       </c>
       <c r="L152" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="M152" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N152" t="n">
         <v>0.0</v>
@@ -9053,34 +9086,34 @@
         <v>3.34252701E8</v>
       </c>
       <c r="D153" t="s">
+        <v>564</v>
+      </c>
+      <c r="E153" t="s">
         <v>565</v>
       </c>
-      <c r="E153" t="s">
+      <c r="F153" t="s">
         <v>566</v>
-      </c>
-      <c r="F153" t="s">
-        <v>567</v>
       </c>
       <c r="G153" t="n">
         <v>4.3790539E7</v>
       </c>
       <c r="H153" t="s">
+        <v>567</v>
+      </c>
+      <c r="I153" t="s">
+        <v>18</v>
+      </c>
+      <c r="J153" t="s">
+        <v>19</v>
+      </c>
+      <c r="K153" t="s">
+        <v>20</v>
+      </c>
+      <c r="L153" t="s">
         <v>568</v>
       </c>
-      <c r="I153" t="s">
-        <v>18</v>
-      </c>
-      <c r="J153" t="s">
-        <v>19</v>
-      </c>
-      <c r="K153" t="s">
-        <v>20</v>
-      </c>
-      <c r="L153" t="s">
-        <v>569</v>
-      </c>
       <c r="M153" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N153" t="n">
         <v>3.0</v>
@@ -9097,19 +9130,19 @@
         <v>2.76328097E8</v>
       </c>
       <c r="D154" t="s">
+        <v>569</v>
+      </c>
+      <c r="E154" t="s">
         <v>570</v>
       </c>
-      <c r="E154" t="s">
+      <c r="F154" t="s">
         <v>571</v>
-      </c>
-      <c r="F154" t="s">
-        <v>572</v>
       </c>
       <c r="G154" t="n">
         <v>4.0540221E7</v>
       </c>
       <c r="H154" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I154" t="s">
         <v>18</v>
@@ -9121,10 +9154,10 @@
         <v>20</v>
       </c>
       <c r="L154" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M154" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="N154" t="n">
         <v>1.0</v>
@@ -9138,22 +9171,22 @@
         <v>9.0</v>
       </c>
       <c r="C155" t="n">
-        <v>2.75678926E8</v>
+        <v>3.39433216E8</v>
       </c>
       <c r="D155" t="s">
+        <v>573</v>
+      </c>
+      <c r="E155" t="s">
         <v>574</v>
       </c>
-      <c r="E155" t="s">
+      <c r="F155" t="s">
         <v>575</v>
-      </c>
-      <c r="F155" t="s">
-        <v>576</v>
       </c>
       <c r="G155" t="n">
         <v>4.0198141E7</v>
       </c>
       <c r="H155" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I155" t="s">
         <v>35</v>
@@ -9165,10 +9198,10 @@
         <v>36</v>
       </c>
       <c r="L155" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M155" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="N155" t="n">
         <v>0.0</v>
@@ -9182,22 +9215,22 @@
         <v>9.0</v>
       </c>
       <c r="C156" t="n">
-        <v>2.76597239E8</v>
+        <v>3.39410701E8</v>
       </c>
       <c r="D156" t="s">
+        <v>578</v>
+      </c>
+      <c r="E156" t="s">
+        <v>574</v>
+      </c>
+      <c r="F156" t="s">
         <v>579</v>
-      </c>
-      <c r="E156" t="s">
-        <v>580</v>
-      </c>
-      <c r="F156" t="s">
-        <v>581</v>
       </c>
       <c r="G156" t="n">
         <v>4.0107164E7</v>
       </c>
       <c r="H156" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="I156" t="s">
         <v>35</v>
@@ -9209,13 +9242,13 @@
         <v>36</v>
       </c>
       <c r="L156" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M156" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="N156" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="157">
@@ -9229,19 +9262,19 @@
         <v>4.50802971E8</v>
       </c>
       <c r="D157" t="s">
+        <v>581</v>
+      </c>
+      <c r="E157" t="s">
+        <v>582</v>
+      </c>
+      <c r="F157" t="s">
         <v>583</v>
-      </c>
-      <c r="E157" t="s">
-        <v>584</v>
-      </c>
-      <c r="F157" t="s">
-        <v>585</v>
       </c>
       <c r="G157" t="n">
         <v>4.8722786E7</v>
       </c>
       <c r="H157" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="I157" t="s">
         <v>35</v>
@@ -9253,10 +9286,10 @@
         <v>36</v>
       </c>
       <c r="L157" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="M157" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="N157" t="n">
         <v>0.0</v>
@@ -9273,19 +9306,19 @@
         <v>2.75992718E8</v>
       </c>
       <c r="D158" t="s">
+        <v>586</v>
+      </c>
+      <c r="E158" t="s">
+        <v>587</v>
+      </c>
+      <c r="F158" t="s">
         <v>588</v>
-      </c>
-      <c r="E158" t="s">
-        <v>589</v>
-      </c>
-      <c r="F158" t="s">
-        <v>590</v>
       </c>
       <c r="G158" t="n">
         <v>4.0735596E7</v>
       </c>
       <c r="H158" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I158" t="s">
         <v>35</v>
@@ -9297,10 +9330,10 @@
         <v>36</v>
       </c>
       <c r="L158" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="M158" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="N158" t="n">
         <v>1.0</v>
@@ -9317,19 +9350,19 @@
         <v>2.76001891E8</v>
       </c>
       <c r="D159" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E159" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F159" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G159" t="n">
         <v>4.0735597E7</v>
       </c>
       <c r="H159" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I159" t="s">
         <v>35</v>
@@ -9341,10 +9374,10 @@
         <v>36</v>
       </c>
       <c r="L159" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="M159" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="N159" t="n">
         <v>1.0</v>
@@ -9361,19 +9394,19 @@
         <v>4.13742665E8</v>
       </c>
       <c r="D160" t="s">
+        <v>594</v>
+      </c>
+      <c r="E160" t="s">
+        <v>595</v>
+      </c>
+      <c r="F160" t="s">
         <v>596</v>
-      </c>
-      <c r="E160" t="s">
-        <v>597</v>
-      </c>
-      <c r="F160" t="s">
-        <v>598</v>
       </c>
       <c r="G160" t="n">
         <v>4.3573822E7</v>
       </c>
       <c r="H160" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="I160" t="s">
         <v>35</v>
@@ -9385,10 +9418,10 @@
         <v>36</v>
       </c>
       <c r="L160" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="M160" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="N160" t="n">
         <v>0.0</v>
@@ -9405,19 +9438,19 @@
         <v>4.23941877E8</v>
       </c>
       <c r="D161" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E161" t="s">
         <v>191</v>
       </c>
       <c r="F161" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G161" t="n">
         <v>4.715209E7</v>
       </c>
       <c r="H161" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="I161" t="s">
         <v>35</v>
@@ -9429,10 +9462,10 @@
         <v>36</v>
       </c>
       <c r="L161" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="M161" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="N161" t="n">
         <v>0.0</v>
@@ -9449,19 +9482,19 @@
         <v>4.47832786E8</v>
       </c>
       <c r="D162" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E162" t="s">
         <v>43</v>
       </c>
       <c r="F162" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G162" t="n">
         <v>4.8101873E7</v>
       </c>
       <c r="H162" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="I162" t="s">
         <v>35</v>
@@ -9476,7 +9509,7 @@
         <v>30</v>
       </c>
       <c r="M162" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="N162" t="n">
         <v>0.0</v>
@@ -9493,19 +9526,19 @@
         <v>4.11163921E8</v>
       </c>
       <c r="D163" t="s">
+        <v>607</v>
+      </c>
+      <c r="E163" t="s">
+        <v>608</v>
+      </c>
+      <c r="F163" t="s">
         <v>609</v>
-      </c>
-      <c r="E163" t="s">
-        <v>610</v>
-      </c>
-      <c r="F163" t="s">
-        <v>611</v>
       </c>
       <c r="G163" t="n">
         <v>4.9307776E7</v>
       </c>
       <c r="H163" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="I163" t="s">
         <v>35</v>
@@ -9517,10 +9550,10 @@
         <v>36</v>
       </c>
       <c r="L163" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="M163" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="N163" t="n">
         <v>2.0</v>
@@ -9537,19 +9570,19 @@
         <v>4.11519961E8</v>
       </c>
       <c r="D164" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E164" t="s">
         <v>39</v>
       </c>
       <c r="F164" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G164" t="n">
         <v>4.9362666E7</v>
       </c>
       <c r="H164" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="I164" t="s">
         <v>35</v>
@@ -9561,10 +9594,10 @@
         <v>36</v>
       </c>
       <c r="L164" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="M164" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="N164" t="n">
         <v>2.0</v>
@@ -9581,19 +9614,19 @@
         <v>4.3950156E8</v>
       </c>
       <c r="D165" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E165" t="s">
         <v>293</v>
       </c>
       <c r="F165" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G165" t="n">
         <v>4.9963573E7</v>
       </c>
       <c r="H165" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="I165" t="s">
         <v>35</v>
@@ -9605,10 +9638,10 @@
         <v>36</v>
       </c>
       <c r="L165" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="M165" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="N165" t="n">
         <v>0.0</v>
@@ -9625,19 +9658,19 @@
         <v>4.50539112E8</v>
       </c>
       <c r="D166" t="s">
+        <v>619</v>
+      </c>
+      <c r="E166" t="s">
+        <v>620</v>
+      </c>
+      <c r="F166" t="s">
         <v>621</v>
-      </c>
-      <c r="E166" t="s">
-        <v>622</v>
-      </c>
-      <c r="F166" t="s">
-        <v>623</v>
       </c>
       <c r="G166" t="n">
         <v>5.0903747E7</v>
       </c>
       <c r="H166" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I166" t="s">
         <v>35</v>
@@ -9649,10 +9682,10 @@
         <v>36</v>
       </c>
       <c r="L166" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="M166" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="N166" t="n">
         <v>0.0</v>
@@ -9669,19 +9702,19 @@
         <v>4.20969245E8</v>
       </c>
       <c r="D167" t="s">
+        <v>624</v>
+      </c>
+      <c r="E167" t="s">
+        <v>625</v>
+      </c>
+      <c r="F167" t="s">
         <v>626</v>
-      </c>
-      <c r="E167" t="s">
-        <v>627</v>
-      </c>
-      <c r="F167" t="s">
-        <v>628</v>
       </c>
       <c r="G167" t="n">
         <v>5.130661E7</v>
       </c>
       <c r="H167" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I167" t="s">
         <v>35</v>
@@ -9693,10 +9726,10 @@
         <v>36</v>
       </c>
       <c r="L167" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="M167" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="N167" t="n">
         <v>1.0</v>
@@ -9713,19 +9746,19 @@
         <v>4.51314386E8</v>
       </c>
       <c r="D168" t="s">
+        <v>629</v>
+      </c>
+      <c r="E168" t="s">
+        <v>630</v>
+      </c>
+      <c r="F168" t="s">
         <v>631</v>
-      </c>
-      <c r="E168" t="s">
-        <v>632</v>
-      </c>
-      <c r="F168" t="s">
-        <v>633</v>
       </c>
       <c r="G168" t="n">
         <v>5.136491E7</v>
       </c>
       <c r="H168" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I168" t="s">
         <v>35</v>
@@ -9737,10 +9770,10 @@
         <v>36</v>
       </c>
       <c r="L168" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="M168" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="N168" t="n">
         <v>0.0</v>
@@ -9757,19 +9790,19 @@
         <v>4.23527245E8</v>
       </c>
       <c r="D169" t="s">
+        <v>633</v>
+      </c>
+      <c r="E169" t="s">
+        <v>634</v>
+      </c>
+      <c r="F169" t="s">
         <v>635</v>
-      </c>
-      <c r="E169" t="s">
-        <v>636</v>
-      </c>
-      <c r="F169" t="s">
-        <v>637</v>
       </c>
       <c r="G169" t="n">
         <v>5.1849743E7</v>
       </c>
       <c r="H169" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I169" t="s">
         <v>35</v>
@@ -9781,10 +9814,10 @@
         <v>36</v>
       </c>
       <c r="L169" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="M169" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="N169" t="n">
         <v>0.0</v>
@@ -9801,19 +9834,19 @@
         <v>4.4488382E8</v>
       </c>
       <c r="D170" t="s">
+        <v>638</v>
+      </c>
+      <c r="E170" t="s">
+        <v>639</v>
+      </c>
+      <c r="F170" t="s">
         <v>640</v>
-      </c>
-      <c r="E170" t="s">
-        <v>641</v>
-      </c>
-      <c r="F170" t="s">
-        <v>642</v>
       </c>
       <c r="G170" t="n">
         <v>5.4161757E7</v>
       </c>
       <c r="H170" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="I170" t="s">
         <v>35</v>
@@ -9825,10 +9858,10 @@
         <v>36</v>
       </c>
       <c r="L170" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="M170" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="N170" t="n">
         <v>0.0</v>
@@ -9845,19 +9878,19 @@
         <v>4.46305867E8</v>
       </c>
       <c r="D171" t="s">
+        <v>643</v>
+      </c>
+      <c r="E171" t="s">
+        <v>644</v>
+      </c>
+      <c r="F171" t="s">
         <v>645</v>
-      </c>
-      <c r="E171" t="s">
-        <v>646</v>
-      </c>
-      <c r="F171" t="s">
-        <v>647</v>
       </c>
       <c r="G171" t="n">
         <v>5.448659E7</v>
       </c>
       <c r="H171" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="I171" t="s">
         <v>35</v>
@@ -9869,10 +9902,10 @@
         <v>36</v>
       </c>
       <c r="L171" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="M171" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="N171" t="n">
         <v>0.0</v>
@@ -9889,19 +9922,19 @@
         <v>4.47079663E8</v>
       </c>
       <c r="D172" t="s">
+        <v>648</v>
+      </c>
+      <c r="E172" t="s">
+        <v>649</v>
+      </c>
+      <c r="F172" t="s">
         <v>650</v>
-      </c>
-      <c r="E172" t="s">
-        <v>651</v>
-      </c>
-      <c r="F172" t="s">
-        <v>652</v>
       </c>
       <c r="G172" t="n">
         <v>5.4718054E7</v>
       </c>
       <c r="H172" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="I172" t="s">
         <v>35</v>
@@ -9913,10 +9946,10 @@
         <v>36</v>
       </c>
       <c r="L172" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="M172" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="N172" t="n">
         <v>0.0</v>
@@ -9933,19 +9966,19 @@
         <v>4.47947349E8</v>
       </c>
       <c r="D173" t="s">
+        <v>652</v>
+      </c>
+      <c r="E173" t="s">
+        <v>653</v>
+      </c>
+      <c r="F173" t="s">
         <v>654</v>
-      </c>
-      <c r="E173" t="s">
-        <v>655</v>
-      </c>
-      <c r="F173" t="s">
-        <v>656</v>
       </c>
       <c r="G173" t="n">
         <v>5.4946083E7</v>
       </c>
       <c r="H173" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="I173" t="s">
         <v>35</v>
@@ -9957,10 +9990,10 @@
         <v>36</v>
       </c>
       <c r="L173" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="M173" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="N173" t="n">
         <v>0.0</v>
@@ -9977,19 +10010,19 @@
         <v>4.48103827E8</v>
       </c>
       <c r="D174" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E174" t="s">
         <v>458</v>
       </c>
       <c r="F174" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G174" t="n">
         <v>5.4987843E7</v>
       </c>
       <c r="H174" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="I174" t="s">
         <v>35</v>
@@ -10001,10 +10034,10 @@
         <v>36</v>
       </c>
       <c r="L174" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="M174" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="N174" t="n">
         <v>0.0</v>
@@ -10021,19 +10054,19 @@
         <v>4.48721415E8</v>
       </c>
       <c r="D175" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E175" t="s">
         <v>471</v>
       </c>
       <c r="F175" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G175" t="n">
         <v>5.5093964E7</v>
       </c>
       <c r="H175" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I175" t="s">
         <v>35</v>
@@ -10045,10 +10078,10 @@
         <v>36</v>
       </c>
       <c r="L175" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="M175" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="N175" t="n">
         <v>0.0</v>
@@ -10065,34 +10098,34 @@
         <v>4.08804095E8</v>
       </c>
       <c r="D176" t="s">
+        <v>665</v>
+      </c>
+      <c r="E176" t="s">
+        <v>666</v>
+      </c>
+      <c r="F176" t="s">
         <v>667</v>
-      </c>
-      <c r="E176" t="s">
-        <v>668</v>
-      </c>
-      <c r="F176" t="s">
-        <v>669</v>
       </c>
       <c r="G176" t="n">
         <v>4.3573822E7</v>
       </c>
       <c r="H176" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="I176" t="s">
         <v>35</v>
       </c>
       <c r="J176" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="K176" t="s">
         <v>36</v>
       </c>
       <c r="L176" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="M176" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="N176" t="n">
         <v>0.0</v>
@@ -10109,34 +10142,34 @@
         <v>4.25794502E8</v>
       </c>
       <c r="D177" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E177" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F177" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G177" t="n">
         <v>4.3573822E7</v>
       </c>
       <c r="H177" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="I177" t="s">
         <v>35</v>
       </c>
       <c r="J177" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="K177" t="s">
         <v>36</v>
       </c>
       <c r="L177" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="M177" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="N177" t="n">
         <v>0.0</v>
@@ -10150,37 +10183,37 @@
         <v>20.0</v>
       </c>
       <c r="C178" t="n">
-        <v>4.49268987E8</v>
+        <v>3.53024308E8</v>
       </c>
       <c r="D178" t="s">
+        <v>673</v>
+      </c>
+      <c r="E178" t="s">
+        <v>674</v>
+      </c>
+      <c r="F178" t="s">
         <v>675</v>
       </c>
-      <c r="E178" t="s">
+      <c r="G178" t="n">
+        <v>4.3573822E7</v>
+      </c>
+      <c r="H178" t="s">
         <v>676</v>
       </c>
-      <c r="F178" t="s">
+      <c r="I178" t="s">
         <v>677</v>
       </c>
-      <c r="G178" t="n">
-        <v>5.0149325E7</v>
-      </c>
-      <c r="H178" t="s">
+      <c r="J178" t="s">
+        <v>19</v>
+      </c>
+      <c r="K178" t="s">
         <v>678</v>
       </c>
-      <c r="I178" t="s">
-        <v>679</v>
-      </c>
-      <c r="J178" t="s">
-        <v>680</v>
-      </c>
-      <c r="K178" t="s">
-        <v>36</v>
-      </c>
       <c r="L178" t="s">
-        <v>604</v>
+        <v>670</v>
       </c>
       <c r="M178" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="N178" t="n">
         <v>0.0</v>
@@ -10194,37 +10227,37 @@
         <v>20.0</v>
       </c>
       <c r="C179" t="n">
-        <v>3.53024308E8</v>
+        <v>4.47233335E8</v>
       </c>
       <c r="D179" t="s">
+        <v>679</v>
+      </c>
+      <c r="E179" t="s">
+        <v>680</v>
+      </c>
+      <c r="F179" t="s">
         <v>681</v>
       </c>
-      <c r="E179" t="s">
+      <c r="G179" t="n">
+        <v>5.136491E7</v>
+      </c>
+      <c r="H179" t="s">
         <v>682</v>
       </c>
-      <c r="F179" t="s">
+      <c r="I179" t="s">
+        <v>677</v>
+      </c>
+      <c r="J179" t="s">
+        <v>19</v>
+      </c>
+      <c r="K179" t="s">
+        <v>678</v>
+      </c>
+      <c r="L179" t="s">
         <v>683</v>
       </c>
-      <c r="G179" t="n">
-        <v>4.3573822E7</v>
-      </c>
-      <c r="H179" t="s">
-        <v>684</v>
-      </c>
-      <c r="I179" t="s">
-        <v>685</v>
-      </c>
-      <c r="J179" t="s">
-        <v>19</v>
-      </c>
-      <c r="K179" t="s">
-        <v>686</v>
-      </c>
-      <c r="L179" t="s">
-        <v>672</v>
-      </c>
       <c r="M179" t="s">
-        <v>600</v>
+        <v>628</v>
       </c>
       <c r="N179" t="n">
         <v>0.0</v>
@@ -10238,40 +10271,40 @@
         <v>20.0</v>
       </c>
       <c r="C180" t="n">
-        <v>3.65055559E8</v>
+        <v>4.47233337E8</v>
       </c>
       <c r="D180" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="E180" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="F180" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="G180" t="n">
-        <v>4.3996304E7</v>
+        <v>5.130661E7</v>
       </c>
       <c r="H180" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="I180" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="J180" t="s">
         <v>19</v>
       </c>
       <c r="K180" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="L180" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="M180" t="s">
-        <v>692</v>
+        <v>628</v>
       </c>
       <c r="N180" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="181">
@@ -10282,37 +10315,37 @@
         <v>20.0</v>
       </c>
       <c r="C181" t="n">
-        <v>3.8069153E8</v>
+        <v>4.48598334E8</v>
       </c>
       <c r="D181" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="E181" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="F181" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="G181" t="n">
-        <v>4.5910775E7</v>
+        <v>5.1849743E7</v>
       </c>
       <c r="H181" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="I181" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="J181" t="s">
         <v>19</v>
       </c>
       <c r="K181" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="L181" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="M181" t="s">
-        <v>698</v>
+        <v>637</v>
       </c>
       <c r="N181" t="n">
         <v>0.0</v>
@@ -10326,37 +10359,37 @@
         <v>20.0</v>
       </c>
       <c r="C182" t="n">
-        <v>4.0464205E8</v>
+        <v>4.49268987E8</v>
       </c>
       <c r="D182" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="E182" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="F182" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="G182" t="n">
-        <v>4.5910776E7</v>
+        <v>5.0149325E7</v>
       </c>
       <c r="H182" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="I182" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="J182" t="s">
-        <v>19</v>
+        <v>696</v>
       </c>
       <c r="K182" t="s">
-        <v>686</v>
+        <v>36</v>
       </c>
       <c r="L182" t="s">
-        <v>703</v>
+        <v>602</v>
       </c>
       <c r="M182" t="s">
-        <v>704</v>
+        <v>602</v>
       </c>
       <c r="N182" t="n">
         <v>0.0</v>
@@ -10370,37 +10403,37 @@
         <v>20.0</v>
       </c>
       <c r="C183" t="n">
-        <v>4.10135107E8</v>
+        <v>4.15426737E8</v>
       </c>
       <c r="D183" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="E183" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="F183" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="G183" t="n">
-        <v>4.6521496E7</v>
+        <v>5.0149325E7</v>
       </c>
       <c r="H183" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="I183" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="J183" t="s">
         <v>19</v>
       </c>
       <c r="K183" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="L183" t="s">
-        <v>709</v>
+        <v>602</v>
       </c>
       <c r="M183" t="s">
-        <v>710</v>
+        <v>602</v>
       </c>
       <c r="N183" t="n">
         <v>0.0</v>
@@ -10414,37 +10447,37 @@
         <v>20.0</v>
       </c>
       <c r="C184" t="n">
-        <v>4.15426737E8</v>
+        <v>4.4353099E8</v>
       </c>
       <c r="D184" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="E184" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="F184" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="G184" t="n">
         <v>5.0149325E7</v>
       </c>
       <c r="H184" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="I184" t="s">
-        <v>685</v>
+        <v>35</v>
       </c>
       <c r="J184" t="s">
-        <v>19</v>
+        <v>669</v>
       </c>
       <c r="K184" t="s">
-        <v>686</v>
+        <v>36</v>
       </c>
       <c r="L184" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="M184" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="N184" t="n">
         <v>0.0</v>
@@ -10458,40 +10491,40 @@
         <v>20.0</v>
       </c>
       <c r="C185" t="n">
-        <v>4.19198406E8</v>
+        <v>3.65055559E8</v>
       </c>
       <c r="D185" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="E185" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="F185" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="G185" t="n">
-        <v>5.0933655E7</v>
+        <v>4.3996304E7</v>
       </c>
       <c r="H185" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="I185" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="J185" t="s">
         <v>19</v>
       </c>
       <c r="K185" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="L185" t="s">
-        <v>608</v>
+        <v>709</v>
       </c>
       <c r="M185" t="s">
-        <v>608</v>
+        <v>710</v>
       </c>
       <c r="N185" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="186">
@@ -10502,37 +10535,37 @@
         <v>20.0</v>
       </c>
       <c r="C186" t="n">
-        <v>4.19198408E8</v>
+        <v>3.8069153E8</v>
       </c>
       <c r="D186" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="E186" t="s">
+        <v>712</v>
+      </c>
+      <c r="F186" t="s">
+        <v>713</v>
+      </c>
+      <c r="G186" t="n">
+        <v>4.5910775E7</v>
+      </c>
+      <c r="H186" t="s">
+        <v>714</v>
+      </c>
+      <c r="I186" t="s">
+        <v>677</v>
+      </c>
+      <c r="J186" t="s">
+        <v>19</v>
+      </c>
+      <c r="K186" t="s">
+        <v>678</v>
+      </c>
+      <c r="L186" t="s">
+        <v>715</v>
+      </c>
+      <c r="M186" t="s">
         <v>716</v>
-      </c>
-      <c r="F186" t="s">
-        <v>720</v>
-      </c>
-      <c r="G186" t="n">
-        <v>5.0933656E7</v>
-      </c>
-      <c r="H186" t="s">
-        <v>721</v>
-      </c>
-      <c r="I186" t="s">
-        <v>685</v>
-      </c>
-      <c r="J186" t="s">
-        <v>19</v>
-      </c>
-      <c r="K186" t="s">
-        <v>686</v>
-      </c>
-      <c r="L186" t="s">
-        <v>608</v>
-      </c>
-      <c r="M186" t="s">
-        <v>608</v>
       </c>
       <c r="N186" t="n">
         <v>0.0</v>
@@ -10546,37 +10579,37 @@
         <v>20.0</v>
       </c>
       <c r="C187" t="n">
-        <v>4.25515059E8</v>
+        <v>4.0464205E8</v>
       </c>
       <c r="D187" t="s">
+        <v>717</v>
+      </c>
+      <c r="E187" t="s">
+        <v>718</v>
+      </c>
+      <c r="F187" t="s">
+        <v>719</v>
+      </c>
+      <c r="G187" t="n">
+        <v>4.5910776E7</v>
+      </c>
+      <c r="H187" t="s">
+        <v>720</v>
+      </c>
+      <c r="I187" t="s">
+        <v>677</v>
+      </c>
+      <c r="J187" t="s">
+        <v>19</v>
+      </c>
+      <c r="K187" t="s">
+        <v>678</v>
+      </c>
+      <c r="L187" t="s">
+        <v>721</v>
+      </c>
+      <c r="M187" t="s">
         <v>722</v>
-      </c>
-      <c r="E187" t="s">
-        <v>379</v>
-      </c>
-      <c r="F187" t="s">
-        <v>723</v>
-      </c>
-      <c r="G187" t="n">
-        <v>5.2279275E7</v>
-      </c>
-      <c r="H187" t="s">
-        <v>724</v>
-      </c>
-      <c r="I187" t="s">
-        <v>685</v>
-      </c>
-      <c r="J187" t="s">
-        <v>19</v>
-      </c>
-      <c r="K187" t="s">
-        <v>686</v>
-      </c>
-      <c r="L187" t="s">
-        <v>613</v>
-      </c>
-      <c r="M187" t="s">
-        <v>613</v>
       </c>
       <c r="N187" t="n">
         <v>0.0</v>
@@ -10590,37 +10623,37 @@
         <v>20.0</v>
       </c>
       <c r="C188" t="n">
-        <v>4.39195474E8</v>
+        <v>4.10135107E8</v>
       </c>
       <c r="D188" t="s">
+        <v>723</v>
+      </c>
+      <c r="E188" t="s">
+        <v>724</v>
+      </c>
+      <c r="F188" t="s">
         <v>725</v>
       </c>
-      <c r="E188" t="s">
+      <c r="G188" t="n">
+        <v>4.6521496E7</v>
+      </c>
+      <c r="H188" t="s">
         <v>726</v>
       </c>
-      <c r="F188" t="s">
+      <c r="I188" t="s">
+        <v>677</v>
+      </c>
+      <c r="J188" t="s">
+        <v>19</v>
+      </c>
+      <c r="K188" t="s">
+        <v>678</v>
+      </c>
+      <c r="L188" t="s">
         <v>727</v>
       </c>
-      <c r="G188" t="n">
-        <v>5.2827516E7</v>
-      </c>
-      <c r="H188" t="s">
+      <c r="M188" t="s">
         <v>728</v>
-      </c>
-      <c r="I188" t="s">
-        <v>685</v>
-      </c>
-      <c r="J188" t="s">
-        <v>19</v>
-      </c>
-      <c r="K188" t="s">
-        <v>686</v>
-      </c>
-      <c r="L188" t="s">
-        <v>620</v>
-      </c>
-      <c r="M188" t="s">
-        <v>620</v>
       </c>
       <c r="N188" t="n">
         <v>0.0</v>
@@ -10634,7 +10667,7 @@
         <v>20.0</v>
       </c>
       <c r="C189" t="n">
-        <v>4.39644406E8</v>
+        <v>4.19198406E8</v>
       </c>
       <c r="D189" t="s">
         <v>729</v>
@@ -10646,25 +10679,25 @@
         <v>731</v>
       </c>
       <c r="G189" t="n">
-        <v>5.29921E7</v>
+        <v>5.0933655E7</v>
       </c>
       <c r="H189" t="s">
         <v>732</v>
       </c>
       <c r="I189" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="J189" t="s">
         <v>19</v>
       </c>
       <c r="K189" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="L189" t="s">
-        <v>39</v>
+        <v>606</v>
       </c>
       <c r="M189" t="s">
-        <v>39</v>
+        <v>606</v>
       </c>
       <c r="N189" t="n">
         <v>0.0</v>
@@ -10678,37 +10711,37 @@
         <v>20.0</v>
       </c>
       <c r="C190" t="n">
-        <v>4.44422902E8</v>
+        <v>4.19198408E8</v>
       </c>
       <c r="D190" t="s">
         <v>733</v>
       </c>
       <c r="E190" t="s">
+        <v>730</v>
+      </c>
+      <c r="F190" t="s">
         <v>734</v>
       </c>
-      <c r="F190" t="s">
+      <c r="G190" t="n">
+        <v>5.0933656E7</v>
+      </c>
+      <c r="H190" t="s">
         <v>735</v>
       </c>
-      <c r="G190" t="n">
-        <v>5.4054316E7</v>
-      </c>
-      <c r="H190" t="s">
-        <v>736</v>
-      </c>
       <c r="I190" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="J190" t="s">
         <v>19</v>
       </c>
       <c r="K190" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="L190" t="s">
-        <v>625</v>
+        <v>606</v>
       </c>
       <c r="M190" t="s">
-        <v>625</v>
+        <v>606</v>
       </c>
       <c r="N190" t="n">
         <v>0.0</v>
@@ -10722,37 +10755,37 @@
         <v>20.0</v>
       </c>
       <c r="C191" t="n">
-        <v>4.47233335E8</v>
+        <v>4.25515059E8</v>
       </c>
       <c r="D191" t="s">
+        <v>736</v>
+      </c>
+      <c r="E191" t="s">
+        <v>379</v>
+      </c>
+      <c r="F191" t="s">
         <v>737</v>
       </c>
-      <c r="E191" t="s">
+      <c r="G191" t="n">
+        <v>5.2279275E7</v>
+      </c>
+      <c r="H191" t="s">
         <v>738</v>
       </c>
-      <c r="F191" t="s">
-        <v>739</v>
-      </c>
-      <c r="G191" t="n">
-        <v>5.136491E7</v>
-      </c>
-      <c r="H191" t="s">
-        <v>740</v>
-      </c>
       <c r="I191" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="J191" t="s">
         <v>19</v>
       </c>
       <c r="K191" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="L191" t="s">
-        <v>741</v>
+        <v>611</v>
       </c>
       <c r="M191" t="s">
-        <v>630</v>
+        <v>611</v>
       </c>
       <c r="N191" t="n">
         <v>0.0</v>
@@ -10766,37 +10799,37 @@
         <v>20.0</v>
       </c>
       <c r="C192" t="n">
-        <v>4.47233337E8</v>
+        <v>4.39195474E8</v>
       </c>
       <c r="D192" t="s">
+        <v>739</v>
+      </c>
+      <c r="E192" t="s">
+        <v>740</v>
+      </c>
+      <c r="F192" t="s">
+        <v>741</v>
+      </c>
+      <c r="G192" t="n">
+        <v>5.2827516E7</v>
+      </c>
+      <c r="H192" t="s">
         <v>742</v>
       </c>
-      <c r="E192" t="s">
-        <v>738</v>
-      </c>
-      <c r="F192" t="s">
-        <v>743</v>
-      </c>
-      <c r="G192" t="n">
-        <v>5.130661E7</v>
-      </c>
-      <c r="H192" t="s">
-        <v>744</v>
-      </c>
       <c r="I192" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="J192" t="s">
         <v>19</v>
       </c>
       <c r="K192" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="L192" t="s">
-        <v>741</v>
+        <v>618</v>
       </c>
       <c r="M192" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="N192" t="n">
         <v>0.0</v>
@@ -10810,37 +10843,37 @@
         <v>20.0</v>
       </c>
       <c r="C193" t="n">
-        <v>4.48598334E8</v>
+        <v>4.39644406E8</v>
       </c>
       <c r="D193" t="s">
+        <v>743</v>
+      </c>
+      <c r="E193" t="s">
+        <v>744</v>
+      </c>
+      <c r="F193" t="s">
         <v>745</v>
       </c>
-      <c r="E193" t="s">
+      <c r="G193" t="n">
+        <v>5.29921E7</v>
+      </c>
+      <c r="H193" t="s">
         <v>746</v>
       </c>
-      <c r="F193" t="s">
-        <v>747</v>
-      </c>
-      <c r="G193" t="n">
-        <v>5.1849743E7</v>
-      </c>
-      <c r="H193" t="s">
-        <v>748</v>
-      </c>
       <c r="I193" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="J193" t="s">
         <v>19</v>
       </c>
       <c r="K193" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="L193" t="s">
-        <v>741</v>
+        <v>39</v>
       </c>
       <c r="M193" t="s">
-        <v>639</v>
+        <v>39</v>
       </c>
       <c r="N193" t="n">
         <v>0.0</v>
@@ -10854,37 +10887,37 @@
         <v>20.0</v>
       </c>
       <c r="C194" t="n">
-        <v>4.13559408E8</v>
+        <v>4.44422902E8</v>
       </c>
       <c r="D194" t="s">
+        <v>747</v>
+      </c>
+      <c r="E194" t="s">
+        <v>748</v>
+      </c>
+      <c r="F194" t="s">
         <v>749</v>
       </c>
-      <c r="E194" t="s">
+      <c r="G194" t="n">
+        <v>5.4054316E7</v>
+      </c>
+      <c r="H194" t="s">
         <v>750</v>
       </c>
-      <c r="F194" t="s">
-        <v>751</v>
-      </c>
-      <c r="G194" t="n">
-        <v>4.3996304E7</v>
-      </c>
-      <c r="H194" t="s">
-        <v>752</v>
-      </c>
       <c r="I194" t="s">
-        <v>35</v>
+        <v>677</v>
       </c>
       <c r="J194" t="s">
-        <v>671</v>
+        <v>19</v>
       </c>
       <c r="K194" t="s">
-        <v>36</v>
+        <v>678</v>
       </c>
       <c r="L194" t="s">
-        <v>691</v>
+        <v>623</v>
       </c>
       <c r="M194" t="s">
-        <v>692</v>
+        <v>623</v>
       </c>
       <c r="N194" t="n">
         <v>0.0</v>
@@ -10898,40 +10931,40 @@
         <v>20.0</v>
       </c>
       <c r="C195" t="n">
-        <v>4.39627177E8</v>
+        <v>4.19066668E8</v>
       </c>
       <c r="D195" t="s">
+        <v>751</v>
+      </c>
+      <c r="E195" t="s">
+        <v>121</v>
+      </c>
+      <c r="F195" t="s">
+        <v>752</v>
+      </c>
+      <c r="G195" t="n">
+        <v>4.5910775E7</v>
+      </c>
+      <c r="H195" t="s">
         <v>753</v>
-      </c>
-      <c r="E195" t="s">
-        <v>754</v>
-      </c>
-      <c r="F195" t="s">
-        <v>751</v>
-      </c>
-      <c r="G195" t="n">
-        <v>4.3996304E7</v>
-      </c>
-      <c r="H195" t="s">
-        <v>752</v>
       </c>
       <c r="I195" t="s">
         <v>35</v>
       </c>
       <c r="J195" t="s">
-        <v>671</v>
+        <v>19</v>
       </c>
       <c r="K195" t="s">
         <v>36</v>
       </c>
       <c r="L195" t="s">
-        <v>691</v>
+        <v>716</v>
       </c>
       <c r="M195" t="s">
-        <v>692</v>
+        <v>716</v>
       </c>
       <c r="N195" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="196">
@@ -10942,40 +10975,216 @@
         <v>20.0</v>
       </c>
       <c r="C196" t="n">
-        <v>4.4353099E8</v>
+        <v>4.17486166E8</v>
       </c>
       <c r="D196" t="s">
+        <v>754</v>
+      </c>
+      <c r="E196" t="s">
         <v>755</v>
       </c>
-      <c r="E196" t="s">
+      <c r="F196" t="s">
         <v>756</v>
       </c>
-      <c r="F196" t="s">
+      <c r="G196" t="n">
+        <v>4.5910776E7</v>
+      </c>
+      <c r="H196" t="s">
         <v>757</v>
-      </c>
-      <c r="G196" t="n">
-        <v>5.0149325E7</v>
-      </c>
-      <c r="H196" t="s">
-        <v>758</v>
       </c>
       <c r="I196" t="s">
         <v>35</v>
       </c>
       <c r="J196" t="s">
-        <v>671</v>
+        <v>19</v>
       </c>
       <c r="K196" t="s">
         <v>36</v>
       </c>
       <c r="L196" t="s">
-        <v>604</v>
+        <v>722</v>
       </c>
       <c r="M196" t="s">
-        <v>604</v>
+        <v>722</v>
       </c>
       <c r="N196" t="n">
         <v>0.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="B197" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C197" t="n">
+        <v>4.1637913E8</v>
+      </c>
+      <c r="D197" t="s">
+        <v>758</v>
+      </c>
+      <c r="E197" t="s">
+        <v>81</v>
+      </c>
+      <c r="F197" t="s">
+        <v>759</v>
+      </c>
+      <c r="G197" t="n">
+        <v>4.6521496E7</v>
+      </c>
+      <c r="H197" t="s">
+        <v>760</v>
+      </c>
+      <c r="I197" t="s">
+        <v>35</v>
+      </c>
+      <c r="J197" t="s">
+        <v>19</v>
+      </c>
+      <c r="K197" t="s">
+        <v>36</v>
+      </c>
+      <c r="L197" t="s">
+        <v>728</v>
+      </c>
+      <c r="M197" t="s">
+        <v>728</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="B198" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C198" t="n">
+        <v>4.23339067E8</v>
+      </c>
+      <c r="D198" t="s">
+        <v>761</v>
+      </c>
+      <c r="E198" t="s">
+        <v>182</v>
+      </c>
+      <c r="F198" t="s">
+        <v>762</v>
+      </c>
+      <c r="G198" t="n">
+        <v>4.3996304E7</v>
+      </c>
+      <c r="H198" t="s">
+        <v>763</v>
+      </c>
+      <c r="I198" t="s">
+        <v>35</v>
+      </c>
+      <c r="J198" t="s">
+        <v>19</v>
+      </c>
+      <c r="K198" t="s">
+        <v>36</v>
+      </c>
+      <c r="L198" t="s">
+        <v>710</v>
+      </c>
+      <c r="M198" t="s">
+        <v>710</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>198.0</v>
+      </c>
+      <c r="B199" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C199" t="n">
+        <v>4.13559408E8</v>
+      </c>
+      <c r="D199" t="s">
+        <v>764</v>
+      </c>
+      <c r="E199" t="s">
+        <v>765</v>
+      </c>
+      <c r="F199" t="s">
+        <v>766</v>
+      </c>
+      <c r="G199" t="n">
+        <v>4.3996304E7</v>
+      </c>
+      <c r="H199" t="s">
+        <v>767</v>
+      </c>
+      <c r="I199" t="s">
+        <v>35</v>
+      </c>
+      <c r="J199" t="s">
+        <v>669</v>
+      </c>
+      <c r="K199" t="s">
+        <v>36</v>
+      </c>
+      <c r="L199" t="s">
+        <v>709</v>
+      </c>
+      <c r="M199" t="s">
+        <v>710</v>
+      </c>
+      <c r="N199" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="B200" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C200" t="n">
+        <v>4.39627177E8</v>
+      </c>
+      <c r="D200" t="s">
+        <v>768</v>
+      </c>
+      <c r="E200" t="s">
+        <v>769</v>
+      </c>
+      <c r="F200" t="s">
+        <v>766</v>
+      </c>
+      <c r="G200" t="n">
+        <v>4.3996304E7</v>
+      </c>
+      <c r="H200" t="s">
+        <v>767</v>
+      </c>
+      <c r="I200" t="s">
+        <v>35</v>
+      </c>
+      <c r="J200" t="s">
+        <v>669</v>
+      </c>
+      <c r="K200" t="s">
+        <v>36</v>
+      </c>
+      <c r="L200" t="s">
+        <v>709</v>
+      </c>
+      <c r="M200" t="s">
+        <v>710</v>
+      </c>
+      <c r="N200" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
